--- a/metaheuristics/VRPTW_LuisaMariaAlvarez_multistart_els_tabu.xlsx
+++ b/metaheuristics/VRPTW_LuisaMariaAlvarez_multistart_els_tabu.xlsx
@@ -8,6 +8,24 @@
   </bookViews>
   <sheets>
     <sheet name="VRPTW" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="VRPTW1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="VRPTW10" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="VRPTW11" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="VRPTW12" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="VRPTW13" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="VRPTW14" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="VRPTW15" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="VRPTW16" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="VRPTW17" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="VRPTW18" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="VRPTW2" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="VRPTW3" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="VRPTW4" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="VRPTW5" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="VRPTW6" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="VRPTW7" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="VRPTW8" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="VRPTW9" sheetId="19" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +447,7 @@
         <v>77.92</v>
       </c>
       <c r="C1" t="n">
-        <v>15.585</v>
+        <v>14.379</v>
       </c>
     </row>
     <row r="2">
@@ -546,6 +564,9426 @@
       </c>
       <c r="H5" t="n">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:V20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B1" t="n">
+        <v>1966.477</v>
+      </c>
+      <c r="C1" t="n">
+        <v>337945.984</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>67</v>
+      </c>
+      <c r="D2" t="n">
+        <v>94</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>70</v>
+      </c>
+      <c r="H2" t="n">
+        <v>95</v>
+      </c>
+      <c r="I2" t="n">
+        <v>122.117</v>
+      </c>
+      <c r="J2" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>72</v>
+      </c>
+      <c r="D3" t="n">
+        <v>42</v>
+      </c>
+      <c r="E3" t="n">
+        <v>44</v>
+      </c>
+      <c r="F3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G3" t="n">
+        <v>40</v>
+      </c>
+      <c r="H3" t="n">
+        <v>43</v>
+      </c>
+      <c r="I3" t="n">
+        <v>37</v>
+      </c>
+      <c r="J3" t="n">
+        <v>35</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>30</v>
+      </c>
+      <c r="N3" t="n">
+        <v>57</v>
+      </c>
+      <c r="O3" t="n">
+        <v>69</v>
+      </c>
+      <c r="P3" t="n">
+        <v>86.28</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>101.665</v>
+      </c>
+      <c r="R3" t="n">
+        <v>128</v>
+      </c>
+      <c r="S3" t="n">
+        <v>148.44</v>
+      </c>
+      <c r="T3" t="n">
+        <v>162.046</v>
+      </c>
+      <c r="U3" t="n">
+        <v>216.25</v>
+      </c>
+      <c r="V3" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>65</v>
+      </c>
+      <c r="D4" t="n">
+        <v>59</v>
+      </c>
+      <c r="E4" t="n">
+        <v>75</v>
+      </c>
+      <c r="F4" t="n">
+        <v>77</v>
+      </c>
+      <c r="G4" t="n">
+        <v>48</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="K4" t="n">
+        <v>53.196</v>
+      </c>
+      <c r="L4" t="n">
+        <v>79.00700000000001</v>
+      </c>
+      <c r="M4" t="n">
+        <v>150</v>
+      </c>
+      <c r="N4" t="n">
+        <v>179.105</v>
+      </c>
+      <c r="O4" t="n">
+        <v>234.149</v>
+      </c>
+      <c r="P4" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>81</v>
+      </c>
+      <c r="D5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E5" t="n">
+        <v>54</v>
+      </c>
+      <c r="F5" t="n">
+        <v>96</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>86</v>
+      </c>
+      <c r="J5" t="n">
+        <v>115.235</v>
+      </c>
+      <c r="K5" t="n">
+        <v>140.532</v>
+      </c>
+      <c r="L5" t="n">
+        <v>156.532</v>
+      </c>
+      <c r="M5" t="n">
+        <v>182.056</v>
+      </c>
+      <c r="N5" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>39</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36</v>
+      </c>
+      <c r="E6" t="n">
+        <v>71</v>
+      </c>
+      <c r="F6" t="n">
+        <v>93</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>37</v>
+      </c>
+      <c r="J6" t="n">
+        <v>54.071</v>
+      </c>
+      <c r="K6" t="n">
+        <v>94.071</v>
+      </c>
+      <c r="L6" t="n">
+        <v>178</v>
+      </c>
+      <c r="M6" t="n">
+        <v>209.095</v>
+      </c>
+      <c r="N6" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>45</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>41</v>
+      </c>
+      <c r="J7" t="n">
+        <v>54</v>
+      </c>
+      <c r="K7" t="n">
+        <v>141</v>
+      </c>
+      <c r="L7" t="n">
+        <v>180</v>
+      </c>
+      <c r="M7" t="n">
+        <v>209.235</v>
+      </c>
+      <c r="N7" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>92</v>
+      </c>
+      <c r="D8" t="n">
+        <v>62</v>
+      </c>
+      <c r="E8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F8" t="n">
+        <v>26</v>
+      </c>
+      <c r="G8" t="n">
+        <v>89</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>14.765</v>
+      </c>
+      <c r="K8" t="n">
+        <v>52</v>
+      </c>
+      <c r="L8" t="n">
+        <v>85</v>
+      </c>
+      <c r="M8" t="n">
+        <v>115</v>
+      </c>
+      <c r="N8" t="n">
+        <v>162.537</v>
+      </c>
+      <c r="O8" t="n">
+        <v>225.016</v>
+      </c>
+      <c r="P8" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>98</v>
+      </c>
+      <c r="D9" t="n">
+        <v>12</v>
+      </c>
+      <c r="E9" t="n">
+        <v>73</v>
+      </c>
+      <c r="F9" t="n">
+        <v>78</v>
+      </c>
+      <c r="G9" t="n">
+        <v>55</v>
+      </c>
+      <c r="H9" t="n">
+        <v>68</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>46</v>
+      </c>
+      <c r="L9" t="n">
+        <v>75.313</v>
+      </c>
+      <c r="M9" t="n">
+        <v>101.468</v>
+      </c>
+      <c r="N9" t="n">
+        <v>118.679</v>
+      </c>
+      <c r="O9" t="n">
+        <v>151.04</v>
+      </c>
+      <c r="P9" t="n">
+        <v>171.04</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>191.04</v>
+      </c>
+      <c r="R9" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>14</v>
+      </c>
+      <c r="D10" t="n">
+        <v>47</v>
+      </c>
+      <c r="E10" t="n">
+        <v>11</v>
+      </c>
+      <c r="F10" t="n">
+        <v>15</v>
+      </c>
+      <c r="G10" t="n">
+        <v>16</v>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>35.355</v>
+      </c>
+      <c r="M10" t="n">
+        <v>48.355</v>
+      </c>
+      <c r="N10" t="n">
+        <v>66.16500000000001</v>
+      </c>
+      <c r="O10" t="n">
+        <v>82.16500000000001</v>
+      </c>
+      <c r="P10" t="n">
+        <v>94.16500000000001</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>115.345</v>
+      </c>
+      <c r="R10" t="n">
+        <v>130.345</v>
+      </c>
+      <c r="S10" t="n">
+        <v>171.968</v>
+      </c>
+      <c r="T10" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>64</v>
+      </c>
+      <c r="D11" t="n">
+        <v>51</v>
+      </c>
+      <c r="E11" t="n">
+        <v>85</v>
+      </c>
+      <c r="F11" t="n">
+        <v>84</v>
+      </c>
+      <c r="G11" t="n">
+        <v>56</v>
+      </c>
+      <c r="H11" t="n">
+        <v>66</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>53</v>
+      </c>
+      <c r="L11" t="n">
+        <v>83</v>
+      </c>
+      <c r="M11" t="n">
+        <v>101.544</v>
+      </c>
+      <c r="N11" t="n">
+        <v>120.029</v>
+      </c>
+      <c r="O11" t="n">
+        <v>139.249</v>
+      </c>
+      <c r="P11" t="n">
+        <v>158.469</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>181.507</v>
+      </c>
+      <c r="R11" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>28</v>
+      </c>
+      <c r="D12" t="n">
+        <v>27</v>
+      </c>
+      <c r="E12" t="n">
+        <v>29</v>
+      </c>
+      <c r="F12" t="n">
+        <v>34</v>
+      </c>
+      <c r="G12" t="n">
+        <v>50</v>
+      </c>
+      <c r="H12" t="n">
+        <v>80</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>62</v>
+      </c>
+      <c r="L12" t="n">
+        <v>77.831</v>
+      </c>
+      <c r="M12" t="n">
+        <v>92.831</v>
+      </c>
+      <c r="N12" t="n">
+        <v>111</v>
+      </c>
+      <c r="O12" t="n">
+        <v>134</v>
+      </c>
+      <c r="P12" t="n">
+        <v>192</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>209.616</v>
+      </c>
+      <c r="R12" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>83</v>
+      </c>
+      <c r="D13" t="n">
+        <v>23</v>
+      </c>
+      <c r="E13" t="n">
+        <v>21</v>
+      </c>
+      <c r="F13" t="n">
+        <v>19</v>
+      </c>
+      <c r="G13" t="n">
+        <v>18</v>
+      </c>
+      <c r="H13" t="n">
+        <v>49</v>
+      </c>
+      <c r="I13" t="n">
+        <v>20</v>
+      </c>
+      <c r="J13" t="n">
+        <v>24</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>35</v>
+      </c>
+      <c r="N13" t="n">
+        <v>71.01900000000001</v>
+      </c>
+      <c r="O13" t="n">
+        <v>83.01900000000001</v>
+      </c>
+      <c r="P13" t="n">
+        <v>98.404</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>113.789</v>
+      </c>
+      <c r="R13" t="n">
+        <v>131.069</v>
+      </c>
+      <c r="S13" t="n">
+        <v>144.069</v>
+      </c>
+      <c r="T13" t="n">
+        <v>158.069</v>
+      </c>
+      <c r="U13" t="n">
+        <v>203.126</v>
+      </c>
+      <c r="V13" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>69</v>
+      </c>
+      <c r="D14" t="n">
+        <v>88</v>
+      </c>
+      <c r="E14" t="n">
+        <v>99</v>
+      </c>
+      <c r="F14" t="n">
+        <v>57</v>
+      </c>
+      <c r="G14" t="n">
+        <v>74</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>41</v>
+      </c>
+      <c r="K14" t="n">
+        <v>67</v>
+      </c>
+      <c r="L14" t="n">
+        <v>100.087</v>
+      </c>
+      <c r="M14" t="n">
+        <v>120.857</v>
+      </c>
+      <c r="N14" t="n">
+        <v>142.037</v>
+      </c>
+      <c r="O14" t="n">
+        <v>188.093</v>
+      </c>
+      <c r="P14" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>95</v>
+      </c>
+      <c r="D15" t="n">
+        <v>33</v>
+      </c>
+      <c r="E15" t="n">
+        <v>30</v>
+      </c>
+      <c r="F15" t="n">
+        <v>32</v>
+      </c>
+      <c r="G15" t="n">
+        <v>91</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>34</v>
+      </c>
+      <c r="K15" t="n">
+        <v>75.38500000000001</v>
+      </c>
+      <c r="L15" t="n">
+        <v>91.21599999999999</v>
+      </c>
+      <c r="M15" t="n">
+        <v>131</v>
+      </c>
+      <c r="N15" t="n">
+        <v>180.85</v>
+      </c>
+      <c r="O15" t="n">
+        <v>202.892</v>
+      </c>
+      <c r="P15" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>63</v>
+      </c>
+      <c r="D16" t="n">
+        <v>76</v>
+      </c>
+      <c r="E16" t="n">
+        <v>22</v>
+      </c>
+      <c r="F16" t="n">
+        <v>13</v>
+      </c>
+      <c r="G16" t="n">
+        <v>17</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>39.051</v>
+      </c>
+      <c r="K16" t="n">
+        <v>75</v>
+      </c>
+      <c r="L16" t="n">
+        <v>105.224</v>
+      </c>
+      <c r="M16" t="n">
+        <v>155.535</v>
+      </c>
+      <c r="N16" t="n">
+        <v>176.715</v>
+      </c>
+      <c r="O16" t="n">
+        <v>227.026</v>
+      </c>
+      <c r="P16" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>7</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6</v>
+      </c>
+      <c r="F17" t="n">
+        <v>79</v>
+      </c>
+      <c r="G17" t="n">
+        <v>60</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>50</v>
+      </c>
+      <c r="K17" t="n">
+        <v>79</v>
+      </c>
+      <c r="L17" t="n">
+        <v>95</v>
+      </c>
+      <c r="M17" t="n">
+        <v>118.892</v>
+      </c>
+      <c r="N17" t="n">
+        <v>155</v>
+      </c>
+      <c r="O17" t="n">
+        <v>191.926</v>
+      </c>
+      <c r="P17" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>90</v>
+      </c>
+      <c r="D18" t="n">
+        <v>53</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>86</v>
+      </c>
+      <c r="H18" t="n">
+        <v>113.263</v>
+      </c>
+      <c r="I18" t="n">
+        <v>143.263</v>
+      </c>
+      <c r="J18" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>7</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>82</v>
+      </c>
+      <c r="D19" t="n">
+        <v>52</v>
+      </c>
+      <c r="E19" t="n">
+        <v>86</v>
+      </c>
+      <c r="F19" t="n">
+        <v>87</v>
+      </c>
+      <c r="G19" t="n">
+        <v>97</v>
+      </c>
+      <c r="H19" t="n">
+        <v>58</v>
+      </c>
+      <c r="I19" t="n">
+        <v>25</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>42</v>
+      </c>
+      <c r="M19" t="n">
+        <v>65.15300000000001</v>
+      </c>
+      <c r="N19" t="n">
+        <v>87</v>
+      </c>
+      <c r="O19" t="n">
+        <v>106</v>
+      </c>
+      <c r="P19" t="n">
+        <v>126</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>152</v>
+      </c>
+      <c r="R19" t="n">
+        <v>182.616</v>
+      </c>
+      <c r="S19" t="n">
+        <v>237.893</v>
+      </c>
+      <c r="T19" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>6</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>61</v>
+      </c>
+      <c r="D20" t="n">
+        <v>8</v>
+      </c>
+      <c r="E20" t="n">
+        <v>46</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>70</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>66</v>
+      </c>
+      <c r="L20" t="n">
+        <v>109.541</v>
+      </c>
+      <c r="M20" t="n">
+        <v>122.541</v>
+      </c>
+      <c r="N20" t="n">
+        <v>138.944</v>
+      </c>
+      <c r="O20" t="n">
+        <v>151.944</v>
+      </c>
+      <c r="P20" t="n">
+        <v>180.812</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>210.459</v>
+      </c>
+      <c r="R20" t="n">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BB7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1" t="n">
+        <v>1715.544</v>
+      </c>
+      <c r="C1" t="n">
+        <v>313739.217</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>95</v>
+      </c>
+      <c r="D2" t="n">
+        <v>63</v>
+      </c>
+      <c r="E2" t="n">
+        <v>33</v>
+      </c>
+      <c r="F2" t="n">
+        <v>31</v>
+      </c>
+      <c r="G2" t="n">
+        <v>29</v>
+      </c>
+      <c r="H2" t="n">
+        <v>27</v>
+      </c>
+      <c r="I2" t="n">
+        <v>30</v>
+      </c>
+      <c r="J2" t="n">
+        <v>28</v>
+      </c>
+      <c r="K2" t="n">
+        <v>26</v>
+      </c>
+      <c r="L2" t="n">
+        <v>34</v>
+      </c>
+      <c r="M2" t="n">
+        <v>50</v>
+      </c>
+      <c r="N2" t="n">
+        <v>32</v>
+      </c>
+      <c r="O2" t="n">
+        <v>89</v>
+      </c>
+      <c r="P2" t="n">
+        <v>91</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>80</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>100</v>
+      </c>
+      <c r="U2" t="n">
+        <v>129.235</v>
+      </c>
+      <c r="V2" t="n">
+        <v>159.851</v>
+      </c>
+      <c r="W2" t="n">
+        <v>180.291</v>
+      </c>
+      <c r="X2" t="n">
+        <v>194</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>209</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>246</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>260</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>529</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>550.1799999999999</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>573.1799999999999</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>621</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>713</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>764.146</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>822</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>839.616</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>18</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>69</v>
+      </c>
+      <c r="D3" t="n">
+        <v>98</v>
+      </c>
+      <c r="E3" t="n">
+        <v>82</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G3" t="n">
+        <v>16</v>
+      </c>
+      <c r="H3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9</v>
+      </c>
+      <c r="K3" t="n">
+        <v>87</v>
+      </c>
+      <c r="L3" t="n">
+        <v>86</v>
+      </c>
+      <c r="M3" t="n">
+        <v>79</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>60</v>
+      </c>
+      <c r="R3" t="n">
+        <v>74</v>
+      </c>
+      <c r="S3" t="n">
+        <v>58</v>
+      </c>
+      <c r="T3" t="n">
+        <v>77</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>157</v>
+      </c>
+      <c r="X3" t="n">
+        <v>172</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>191.055</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>223</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>255</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>267</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>283</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>371</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>392.18</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>411.18</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>467.667</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>491.559</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>512.329</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>673</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>709.926</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>760.237</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>782</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>802.63</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>862.61</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>24</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>72</v>
+      </c>
+      <c r="D4" t="n">
+        <v>36</v>
+      </c>
+      <c r="E4" t="n">
+        <v>39</v>
+      </c>
+      <c r="F4" t="n">
+        <v>42</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>88</v>
+      </c>
+      <c r="K4" t="n">
+        <v>90</v>
+      </c>
+      <c r="L4" t="n">
+        <v>84</v>
+      </c>
+      <c r="M4" t="n">
+        <v>51</v>
+      </c>
+      <c r="N4" t="n">
+        <v>18</v>
+      </c>
+      <c r="O4" t="n">
+        <v>49</v>
+      </c>
+      <c r="P4" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>57</v>
+      </c>
+      <c r="R4" t="n">
+        <v>97</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" t="n">
+        <v>55</v>
+      </c>
+      <c r="U4" t="n">
+        <v>37</v>
+      </c>
+      <c r="V4" t="n">
+        <v>35</v>
+      </c>
+      <c r="W4" t="n">
+        <v>54</v>
+      </c>
+      <c r="X4" t="n">
+        <v>93</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>107.171</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>122.171</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>167.526</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>187.724</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>300</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>329.235</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>359</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>395.907</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>415.127</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>443.728</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>461.008</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>474.614</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>498.756</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>547</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>579.804</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>618.088</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>669.428</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>683.034</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>720.765</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>808</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>849.064</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>863.5359999999999</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>892.771</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>65</v>
+      </c>
+      <c r="D5" t="n">
+        <v>83</v>
+      </c>
+      <c r="E5" t="n">
+        <v>64</v>
+      </c>
+      <c r="F5" t="n">
+        <v>19</v>
+      </c>
+      <c r="G5" t="n">
+        <v>23</v>
+      </c>
+      <c r="H5" t="n">
+        <v>21</v>
+      </c>
+      <c r="I5" t="n">
+        <v>76</v>
+      </c>
+      <c r="J5" t="n">
+        <v>85</v>
+      </c>
+      <c r="K5" t="n">
+        <v>67</v>
+      </c>
+      <c r="L5" t="n">
+        <v>94</v>
+      </c>
+      <c r="M5" t="n">
+        <v>81</v>
+      </c>
+      <c r="N5" t="n">
+        <v>96</v>
+      </c>
+      <c r="O5" t="n">
+        <v>56</v>
+      </c>
+      <c r="P5" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>20</v>
+      </c>
+      <c r="R5" t="n">
+        <v>24</v>
+      </c>
+      <c r="S5" t="n">
+        <v>25</v>
+      </c>
+      <c r="T5" t="n">
+        <v>48</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="X5" t="n">
+        <v>105</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>191</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>254</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>270.403</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>282.403</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>313.593</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>344</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>373.026</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>392.246</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>415.052</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>562</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>591.647</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>610.867</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>642.89</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>681</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>784</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>801</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>856.044</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>45</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14</v>
+      </c>
+      <c r="E6" t="n">
+        <v>47</v>
+      </c>
+      <c r="F6" t="n">
+        <v>59</v>
+      </c>
+      <c r="G6" t="n">
+        <v>75</v>
+      </c>
+      <c r="H6" t="n">
+        <v>52</v>
+      </c>
+      <c r="I6" t="n">
+        <v>99</v>
+      </c>
+      <c r="J6" t="n">
+        <v>53</v>
+      </c>
+      <c r="K6" t="n">
+        <v>73</v>
+      </c>
+      <c r="L6" t="n">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>17</v>
+      </c>
+      <c r="N6" t="n">
+        <v>13</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>37.736</v>
+      </c>
+      <c r="R6" t="n">
+        <v>87.661</v>
+      </c>
+      <c r="S6" t="n">
+        <v>105</v>
+      </c>
+      <c r="T6" t="n">
+        <v>141.249</v>
+      </c>
+      <c r="U6" t="n">
+        <v>232</v>
+      </c>
+      <c r="V6" t="n">
+        <v>274.016</v>
+      </c>
+      <c r="W6" t="n">
+        <v>308</v>
+      </c>
+      <c r="X6" t="n">
+        <v>375</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>405.591</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>422.802</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>703</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>724.1799999999999</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>772.259</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>13</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>92</v>
+      </c>
+      <c r="D7" t="n">
+        <v>62</v>
+      </c>
+      <c r="E7" t="n">
+        <v>71</v>
+      </c>
+      <c r="F7" t="n">
+        <v>61</v>
+      </c>
+      <c r="G7" t="n">
+        <v>44</v>
+      </c>
+      <c r="H7" t="n">
+        <v>40</v>
+      </c>
+      <c r="I7" t="n">
+        <v>38</v>
+      </c>
+      <c r="J7" t="n">
+        <v>41</v>
+      </c>
+      <c r="K7" t="n">
+        <v>8</v>
+      </c>
+      <c r="L7" t="n">
+        <v>46</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="n">
+        <v>43</v>
+      </c>
+      <c r="O7" t="n">
+        <v>68</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>14.765</v>
+      </c>
+      <c r="S7" t="n">
+        <v>167</v>
+      </c>
+      <c r="T7" t="n">
+        <v>241</v>
+      </c>
+      <c r="U7" t="n">
+        <v>273.361</v>
+      </c>
+      <c r="V7" t="n">
+        <v>303.084</v>
+      </c>
+      <c r="W7" t="n">
+        <v>329</v>
+      </c>
+      <c r="X7" t="n">
+        <v>344.385</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>376</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>429.29</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>489</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>644</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>689.355</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>728.51</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>748.51</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AV3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B1" t="n">
+        <v>237.145</v>
+      </c>
+      <c r="C1" t="n">
+        <v>13422.004</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>23</v>
+      </c>
+      <c r="J2" t="n">
+        <v>18</v>
+      </c>
+      <c r="K2" t="n">
+        <v>19</v>
+      </c>
+      <c r="L2" t="n">
+        <v>16</v>
+      </c>
+      <c r="M2" t="n">
+        <v>14</v>
+      </c>
+      <c r="N2" t="n">
+        <v>12</v>
+      </c>
+      <c r="O2" t="n">
+        <v>15</v>
+      </c>
+      <c r="P2" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>13</v>
+      </c>
+      <c r="R2" t="n">
+        <v>25</v>
+      </c>
+      <c r="S2" t="n">
+        <v>9</v>
+      </c>
+      <c r="T2" t="n">
+        <v>11</v>
+      </c>
+      <c r="U2" t="n">
+        <v>10</v>
+      </c>
+      <c r="V2" t="n">
+        <v>8</v>
+      </c>
+      <c r="W2" t="n">
+        <v>21</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>213</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>311.602</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1073</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1167.123</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1261</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1643</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1742.055</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1837.055</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1934.126</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>2026.126</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>2119.126</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>2216.197</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>2311.582</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>2405.582</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>2504.582</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2601.793</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>2698.864</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>2791.864</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>2887.947</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2983.604</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>3085.266</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22</v>
+      </c>
+      <c r="E3" t="n">
+        <v>24</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10</v>
+      </c>
+      <c r="J3" t="n">
+        <v>102.828</v>
+      </c>
+      <c r="K3" t="n">
+        <v>196.434</v>
+      </c>
+      <c r="L3" t="n">
+        <v>497</v>
+      </c>
+      <c r="M3" t="n">
+        <v>612.298</v>
+      </c>
+      <c r="N3" t="n">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1" t="n">
+        <v>659.186</v>
+      </c>
+      <c r="C1" t="n">
+        <v>16274.815</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2" t="n">
+        <v>22</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>25</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>32.016</v>
+      </c>
+      <c r="K2" t="n">
+        <v>61</v>
+      </c>
+      <c r="L2" t="n">
+        <v>97</v>
+      </c>
+      <c r="M2" t="n">
+        <v>149</v>
+      </c>
+      <c r="N2" t="n">
+        <v>172</v>
+      </c>
+      <c r="O2" t="n">
+        <v>215.541</v>
+      </c>
+      <c r="P2" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>13</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>34</v>
+      </c>
+      <c r="J3" t="n">
+        <v>75</v>
+      </c>
+      <c r="K3" t="n">
+        <v>103.028</v>
+      </c>
+      <c r="L3" t="n">
+        <v>159</v>
+      </c>
+      <c r="M3" t="n">
+        <v>180.18</v>
+      </c>
+      <c r="N3" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>50</v>
+      </c>
+      <c r="H4" t="n">
+        <v>70.44</v>
+      </c>
+      <c r="I4" t="n">
+        <v>98.468</v>
+      </c>
+      <c r="J4" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>63</v>
+      </c>
+      <c r="I5" t="n">
+        <v>98.495</v>
+      </c>
+      <c r="J5" t="n">
+        <v>133.495</v>
+      </c>
+      <c r="K5" t="n">
+        <v>168.99</v>
+      </c>
+      <c r="L5" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>19</v>
+      </c>
+      <c r="E6" t="n">
+        <v>20</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>67</v>
+      </c>
+      <c r="J6" t="n">
+        <v>84.071</v>
+      </c>
+      <c r="K6" t="n">
+        <v>126</v>
+      </c>
+      <c r="L6" t="n">
+        <v>161</v>
+      </c>
+      <c r="M6" t="n">
+        <v>186.232</v>
+      </c>
+      <c r="N6" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>23</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>24</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>68</v>
+      </c>
+      <c r="I7" t="n">
+        <v>118</v>
+      </c>
+      <c r="J7" t="n">
+        <v>153</v>
+      </c>
+      <c r="K7" t="n">
+        <v>193</v>
+      </c>
+      <c r="L7" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8</v>
+      </c>
+      <c r="E8" t="n">
+        <v>17</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>81</v>
+      </c>
+      <c r="I8" t="n">
+        <v>103.207</v>
+      </c>
+      <c r="J8" t="n">
+        <v>157</v>
+      </c>
+      <c r="K8" t="n">
+        <v>197.414</v>
+      </c>
+      <c r="L8" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>18</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>87</v>
+      </c>
+      <c r="G9" t="n">
+        <v>112.811</v>
+      </c>
+      <c r="H9" t="n">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AF3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B1" t="n">
+        <v>553.1079999999999</v>
+      </c>
+      <c r="C1" t="n">
+        <v>13509.763</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E2" t="n">
+        <v>19</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7</v>
+      </c>
+      <c r="G2" t="n">
+        <v>9</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>20</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>25</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>228</v>
+      </c>
+      <c r="R2" t="n">
+        <v>280.426</v>
+      </c>
+      <c r="S2" t="n">
+        <v>297.497</v>
+      </c>
+      <c r="T2" t="n">
+        <v>331</v>
+      </c>
+      <c r="U2" t="n">
+        <v>400</v>
+      </c>
+      <c r="V2" t="n">
+        <v>527</v>
+      </c>
+      <c r="W2" t="n">
+        <v>581</v>
+      </c>
+      <c r="X2" t="n">
+        <v>606.811</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>707</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>749.202</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>817</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>842</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>882</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E3" t="n">
+        <v>15</v>
+      </c>
+      <c r="F3" t="n">
+        <v>23</v>
+      </c>
+      <c r="G3" t="n">
+        <v>21</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>16</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8</v>
+      </c>
+      <c r="K3" t="n">
+        <v>18</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6</v>
+      </c>
+      <c r="M3" t="n">
+        <v>22</v>
+      </c>
+      <c r="N3" t="n">
+        <v>13</v>
+      </c>
+      <c r="O3" t="n">
+        <v>17</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>34</v>
+      </c>
+      <c r="S3" t="n">
+        <v>64</v>
+      </c>
+      <c r="T3" t="n">
+        <v>175</v>
+      </c>
+      <c r="U3" t="n">
+        <v>210</v>
+      </c>
+      <c r="V3" t="n">
+        <v>238.028</v>
+      </c>
+      <c r="W3" t="n">
+        <v>258.468</v>
+      </c>
+      <c r="X3" t="n">
+        <v>293.647</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>404</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>424.44</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>445.62</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>483.904</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>690</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>733</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>773.414</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1" t="n">
+        <v>536.3</v>
+      </c>
+      <c r="C1" t="n">
+        <v>17267.162</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>50</v>
+      </c>
+      <c r="K2" t="n">
+        <v>70.19799999999999</v>
+      </c>
+      <c r="L2" t="n">
+        <v>109</v>
+      </c>
+      <c r="M2" t="n">
+        <v>145</v>
+      </c>
+      <c r="N2" t="n">
+        <v>162.071</v>
+      </c>
+      <c r="O2" t="n">
+        <v>208.127</v>
+      </c>
+      <c r="P2" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9</v>
+      </c>
+      <c r="F3" t="n">
+        <v>13</v>
+      </c>
+      <c r="G3" t="n">
+        <v>17</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>64</v>
+      </c>
+      <c r="K3" t="n">
+        <v>79</v>
+      </c>
+      <c r="L3" t="n">
+        <v>94.38500000000001</v>
+      </c>
+      <c r="M3" t="n">
+        <v>142</v>
+      </c>
+      <c r="N3" t="n">
+        <v>163.18</v>
+      </c>
+      <c r="O3" t="n">
+        <v>213.491</v>
+      </c>
+      <c r="P3" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16</v>
+      </c>
+      <c r="E4" t="n">
+        <v>15</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>35.355</v>
+      </c>
+      <c r="J4" t="n">
+        <v>72</v>
+      </c>
+      <c r="K4" t="n">
+        <v>84</v>
+      </c>
+      <c r="L4" t="n">
+        <v>119</v>
+      </c>
+      <c r="M4" t="n">
+        <v>160.623</v>
+      </c>
+      <c r="N4" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21</v>
+      </c>
+      <c r="E5" t="n">
+        <v>19</v>
+      </c>
+      <c r="F5" t="n">
+        <v>18</v>
+      </c>
+      <c r="G5" t="n">
+        <v>25</v>
+      </c>
+      <c r="H5" t="n">
+        <v>24</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>65</v>
+      </c>
+      <c r="L5" t="n">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>92.38500000000001</v>
+      </c>
+      <c r="N5" t="n">
+        <v>107.77</v>
+      </c>
+      <c r="O5" t="n">
+        <v>154</v>
+      </c>
+      <c r="P5" t="n">
+        <v>174.44</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>219.497</v>
+      </c>
+      <c r="R5" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>92</v>
+      </c>
+      <c r="H6" t="n">
+        <v>122</v>
+      </c>
+      <c r="I6" t="n">
+        <v>167.057</v>
+      </c>
+      <c r="J6" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>79</v>
+      </c>
+      <c r="I7" t="n">
+        <v>94</v>
+      </c>
+      <c r="J7" t="n">
+        <v>109.831</v>
+      </c>
+      <c r="K7" t="n">
+        <v>153.133</v>
+      </c>
+      <c r="L7" t="n">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AJ3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B1" t="n">
+        <v>607.505</v>
+      </c>
+      <c r="C1" t="n">
+        <v>14117.135</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>21</v>
+      </c>
+      <c r="F2" t="n">
+        <v>23</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6</v>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>73</v>
+      </c>
+      <c r="P2" t="n">
+        <v>152</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>234.277</v>
+      </c>
+      <c r="R2" t="n">
+        <v>246.277</v>
+      </c>
+      <c r="S2" t="n">
+        <v>388</v>
+      </c>
+      <c r="T2" t="n">
+        <v>401</v>
+      </c>
+      <c r="U2" t="n">
+        <v>416</v>
+      </c>
+      <c r="V2" t="n">
+        <v>471</v>
+      </c>
+      <c r="W2" t="n">
+        <v>673</v>
+      </c>
+      <c r="X2" t="n">
+        <v>690.071</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>736.127</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12</v>
+      </c>
+      <c r="E3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G3" t="n">
+        <v>11</v>
+      </c>
+      <c r="H3" t="n">
+        <v>19</v>
+      </c>
+      <c r="I3" t="n">
+        <v>18</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9</v>
+      </c>
+      <c r="K3" t="n">
+        <v>22</v>
+      </c>
+      <c r="L3" t="n">
+        <v>20</v>
+      </c>
+      <c r="M3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N3" t="n">
+        <v>17</v>
+      </c>
+      <c r="O3" t="n">
+        <v>13</v>
+      </c>
+      <c r="P3" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>25</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>35.355</v>
+      </c>
+      <c r="U3" t="n">
+        <v>223</v>
+      </c>
+      <c r="V3" t="n">
+        <v>255</v>
+      </c>
+      <c r="W3" t="n">
+        <v>267</v>
+      </c>
+      <c r="X3" t="n">
+        <v>283</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>338.343</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>353.728</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>409.071</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>455.127</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>537</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>587.6079999999999</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>703</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>724.1799999999999</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>772.768</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>793.208</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>848.485</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>330</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AB7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1" t="n">
+        <v>468.126</v>
+      </c>
+      <c r="C1" t="n">
+        <v>89106.92</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>43</v>
+      </c>
+      <c r="D2" t="n">
+        <v>42</v>
+      </c>
+      <c r="E2" t="n">
+        <v>41</v>
+      </c>
+      <c r="F2" t="n">
+        <v>40</v>
+      </c>
+      <c r="G2" t="n">
+        <v>44</v>
+      </c>
+      <c r="H2" t="n">
+        <v>46</v>
+      </c>
+      <c r="I2" t="n">
+        <v>45</v>
+      </c>
+      <c r="J2" t="n">
+        <v>48</v>
+      </c>
+      <c r="K2" t="n">
+        <v>50</v>
+      </c>
+      <c r="L2" t="n">
+        <v>49</v>
+      </c>
+      <c r="M2" t="n">
+        <v>47</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>16.553</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>109.553</v>
+      </c>
+      <c r="R2" t="n">
+        <v>201.553</v>
+      </c>
+      <c r="S2" t="n">
+        <v>293.553</v>
+      </c>
+      <c r="T2" t="n">
+        <v>386.553</v>
+      </c>
+      <c r="U2" t="n">
+        <v>479.381</v>
+      </c>
+      <c r="V2" t="n">
+        <v>571.381</v>
+      </c>
+      <c r="W2" t="n">
+        <v>663.381</v>
+      </c>
+      <c r="X2" t="n">
+        <v>815</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1001</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1093</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1201.028</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>24</v>
+      </c>
+      <c r="E3" t="n">
+        <v>25</v>
+      </c>
+      <c r="F3" t="n">
+        <v>27</v>
+      </c>
+      <c r="G3" t="n">
+        <v>29</v>
+      </c>
+      <c r="H3" t="n">
+        <v>30</v>
+      </c>
+      <c r="I3" t="n">
+        <v>28</v>
+      </c>
+      <c r="J3" t="n">
+        <v>26</v>
+      </c>
+      <c r="K3" t="n">
+        <v>23</v>
+      </c>
+      <c r="L3" t="n">
+        <v>22</v>
+      </c>
+      <c r="M3" t="n">
+        <v>21</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>105</v>
+      </c>
+      <c r="R3" t="n">
+        <v>197</v>
+      </c>
+      <c r="S3" t="n">
+        <v>289</v>
+      </c>
+      <c r="T3" t="n">
+        <v>382.606</v>
+      </c>
+      <c r="U3" t="n">
+        <v>477.606</v>
+      </c>
+      <c r="V3" t="n">
+        <v>570.606</v>
+      </c>
+      <c r="W3" t="n">
+        <v>662.606</v>
+      </c>
+      <c r="X3" t="n">
+        <v>755.606</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>848.606</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>940.606</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1040.804</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>18</v>
+      </c>
+      <c r="F4" t="n">
+        <v>19</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>30.806</v>
+      </c>
+      <c r="P4" t="n">
+        <v>124.806</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>217.806</v>
+      </c>
+      <c r="R4" t="n">
+        <v>312.806</v>
+      </c>
+      <c r="S4" t="n">
+        <v>448</v>
+      </c>
+      <c r="T4" t="n">
+        <v>541.162</v>
+      </c>
+      <c r="U4" t="n">
+        <v>633.398</v>
+      </c>
+      <c r="V4" t="n">
+        <v>727</v>
+      </c>
+      <c r="W4" t="n">
+        <v>825</v>
+      </c>
+      <c r="X4" t="n">
+        <v>917</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1025.682</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E5" t="n">
+        <v>14</v>
+      </c>
+      <c r="F5" t="n">
+        <v>12</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>357</v>
+      </c>
+      <c r="J5" t="n">
+        <v>475</v>
+      </c>
+      <c r="K5" t="n">
+        <v>567</v>
+      </c>
+      <c r="L5" t="n">
+        <v>660</v>
+      </c>
+      <c r="M5" t="n">
+        <v>788.079</v>
+      </c>
+      <c r="N5" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>32</v>
+      </c>
+      <c r="D6" t="n">
+        <v>33</v>
+      </c>
+      <c r="E6" t="n">
+        <v>31</v>
+      </c>
+      <c r="F6" t="n">
+        <v>35</v>
+      </c>
+      <c r="G6" t="n">
+        <v>37</v>
+      </c>
+      <c r="H6" t="n">
+        <v>38</v>
+      </c>
+      <c r="I6" t="n">
+        <v>39</v>
+      </c>
+      <c r="J6" t="n">
+        <v>36</v>
+      </c>
+      <c r="K6" t="n">
+        <v>34</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>31.623</v>
+      </c>
+      <c r="O6" t="n">
+        <v>123.623</v>
+      </c>
+      <c r="P6" t="n">
+        <v>219.008</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>314.008</v>
+      </c>
+      <c r="R6" t="n">
+        <v>409.839</v>
+      </c>
+      <c r="S6" t="n">
+        <v>501.839</v>
+      </c>
+      <c r="T6" t="n">
+        <v>596.8390000000001</v>
+      </c>
+      <c r="U6" t="n">
+        <v>691.8390000000001</v>
+      </c>
+      <c r="V6" t="n">
+        <v>784.8390000000001</v>
+      </c>
+      <c r="W6" t="n">
+        <v>907.227</v>
+      </c>
+      <c r="X6" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8</v>
+      </c>
+      <c r="G7" t="n">
+        <v>15</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>15.133</v>
+      </c>
+      <c r="K7" t="n">
+        <v>106.133</v>
+      </c>
+      <c r="L7" t="n">
+        <v>198.133</v>
+      </c>
+      <c r="M7" t="n">
+        <v>290.961</v>
+      </c>
+      <c r="N7" t="n">
+        <v>402.594</v>
+      </c>
+      <c r="O7" t="n">
+        <v>528.65</v>
+      </c>
+      <c r="P7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BD3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B1" t="n">
+        <v>495.446</v>
+      </c>
+      <c r="C1" t="n">
+        <v>36330.868</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22</v>
+      </c>
+      <c r="E2" t="n">
+        <v>24</v>
+      </c>
+      <c r="F2" t="n">
+        <v>27</v>
+      </c>
+      <c r="G2" t="n">
+        <v>49</v>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>28</v>
+      </c>
+      <c r="L2" t="n">
+        <v>26</v>
+      </c>
+      <c r="M2" t="n">
+        <v>23</v>
+      </c>
+      <c r="N2" t="n">
+        <v>18</v>
+      </c>
+      <c r="O2" t="n">
+        <v>19</v>
+      </c>
+      <c r="P2" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>14</v>
+      </c>
+      <c r="R2" t="n">
+        <v>12</v>
+      </c>
+      <c r="S2" t="n">
+        <v>15</v>
+      </c>
+      <c r="T2" t="n">
+        <v>17</v>
+      </c>
+      <c r="U2" t="n">
+        <v>13</v>
+      </c>
+      <c r="V2" t="n">
+        <v>25</v>
+      </c>
+      <c r="W2" t="n">
+        <v>9</v>
+      </c>
+      <c r="X2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>102.828</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>196.434</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>289.262</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>967</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1107.99</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1202.113</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1295.719</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1447</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1545.062</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1643</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1742.055</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1837.055</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>1934.126</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>2026.126</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>2119.126</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2216.197</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>2311.582</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>2405.582</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>2504.582</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>2601.793</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>2698.864</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>2791.864</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>2887.947</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>2983.604</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>3085.266</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>25</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G3" t="n">
+        <v>29</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+      <c r="I3" t="n">
+        <v>32</v>
+      </c>
+      <c r="J3" t="n">
+        <v>33</v>
+      </c>
+      <c r="K3" t="n">
+        <v>31</v>
+      </c>
+      <c r="L3" t="n">
+        <v>35</v>
+      </c>
+      <c r="M3" t="n">
+        <v>37</v>
+      </c>
+      <c r="N3" t="n">
+        <v>38</v>
+      </c>
+      <c r="O3" t="n">
+        <v>39</v>
+      </c>
+      <c r="P3" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>34</v>
+      </c>
+      <c r="R3" t="n">
+        <v>40</v>
+      </c>
+      <c r="S3" t="n">
+        <v>44</v>
+      </c>
+      <c r="T3" t="n">
+        <v>46</v>
+      </c>
+      <c r="U3" t="n">
+        <v>45</v>
+      </c>
+      <c r="V3" t="n">
+        <v>50</v>
+      </c>
+      <c r="W3" t="n">
+        <v>47</v>
+      </c>
+      <c r="X3" t="n">
+        <v>43</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>42</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>213</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>311.602</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>439.338</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>534.338</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>633.282</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>729.607</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>821.607</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>916.992</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1011.992</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1107.823</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1199.823</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>1294.823</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>1389.823</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>1482.823</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>1819</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>1913.472</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>2009</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>2105.403</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2292</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>2480</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>2573</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>2666</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>2758</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>2856.062</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>2956.832</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>420</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B1" t="n">
+        <v>1171.206</v>
+      </c>
+      <c r="C1" t="n">
+        <v>74325.99000000001</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>85</v>
+      </c>
+      <c r="H2" t="n">
+        <v>132</v>
+      </c>
+      <c r="I2" t="n">
+        <v>153.18</v>
+      </c>
+      <c r="J2" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E3" t="n">
+        <v>22</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" t="n">
+        <v>25</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>32.016</v>
+      </c>
+      <c r="K3" t="n">
+        <v>61</v>
+      </c>
+      <c r="L3" t="n">
+        <v>97</v>
+      </c>
+      <c r="M3" t="n">
+        <v>149</v>
+      </c>
+      <c r="N3" t="n">
+        <v>172</v>
+      </c>
+      <c r="O3" t="n">
+        <v>215.541</v>
+      </c>
+      <c r="P3" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>45</v>
+      </c>
+      <c r="D4" t="n">
+        <v>47</v>
+      </c>
+      <c r="E4" t="n">
+        <v>19</v>
+      </c>
+      <c r="F4" t="n">
+        <v>49</v>
+      </c>
+      <c r="G4" t="n">
+        <v>48</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>32</v>
+      </c>
+      <c r="K4" t="n">
+        <v>60.111</v>
+      </c>
+      <c r="L4" t="n">
+        <v>78.173</v>
+      </c>
+      <c r="M4" t="n">
+        <v>108</v>
+      </c>
+      <c r="N4" t="n">
+        <v>165</v>
+      </c>
+      <c r="O4" t="n">
+        <v>202.803</v>
+      </c>
+      <c r="P4" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>44</v>
+      </c>
+      <c r="E5" t="n">
+        <v>38</v>
+      </c>
+      <c r="F5" t="n">
+        <v>43</v>
+      </c>
+      <c r="G5" t="n">
+        <v>13</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>34</v>
+      </c>
+      <c r="K5" t="n">
+        <v>69</v>
+      </c>
+      <c r="L5" t="n">
+        <v>89.81699999999999</v>
+      </c>
+      <c r="M5" t="n">
+        <v>132</v>
+      </c>
+      <c r="N5" t="n">
+        <v>165.087</v>
+      </c>
+      <c r="O5" t="n">
+        <v>186.267</v>
+      </c>
+      <c r="P5" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>27</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F6" t="n">
+        <v>46</v>
+      </c>
+      <c r="G6" t="n">
+        <v>17</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>37</v>
+      </c>
+      <c r="K6" t="n">
+        <v>81</v>
+      </c>
+      <c r="L6" t="n">
+        <v>103.207</v>
+      </c>
+      <c r="M6" t="n">
+        <v>122.641</v>
+      </c>
+      <c r="N6" t="n">
+        <v>157</v>
+      </c>
+      <c r="O6" t="n">
+        <v>197.414</v>
+      </c>
+      <c r="P6" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>28</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12</v>
+      </c>
+      <c r="E7" t="n">
+        <v>34</v>
+      </c>
+      <c r="F7" t="n">
+        <v>24</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>39</v>
+      </c>
+      <c r="J7" t="n">
+        <v>63</v>
+      </c>
+      <c r="K7" t="n">
+        <v>117</v>
+      </c>
+      <c r="L7" t="n">
+        <v>153</v>
+      </c>
+      <c r="M7" t="n">
+        <v>193</v>
+      </c>
+      <c r="N7" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>21</v>
+      </c>
+      <c r="E8" t="n">
+        <v>41</v>
+      </c>
+      <c r="F8" t="n">
+        <v>37</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>50</v>
+      </c>
+      <c r="J8" t="n">
+        <v>70.44</v>
+      </c>
+      <c r="K8" t="n">
+        <v>97</v>
+      </c>
+      <c r="L8" t="n">
+        <v>134</v>
+      </c>
+      <c r="M8" t="n">
+        <v>165.213</v>
+      </c>
+      <c r="N8" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>36</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>70.08199999999999</v>
+      </c>
+      <c r="J9" t="n">
+        <v>124</v>
+      </c>
+      <c r="K9" t="n">
+        <v>159.495</v>
+      </c>
+      <c r="L9" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>39</v>
+      </c>
+      <c r="D10" t="n">
+        <v>23</v>
+      </c>
+      <c r="E10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>44</v>
+      </c>
+      <c r="J10" t="n">
+        <v>68</v>
+      </c>
+      <c r="K10" t="n">
+        <v>124</v>
+      </c>
+      <c r="L10" t="n">
+        <v>161</v>
+      </c>
+      <c r="M10" t="n">
+        <v>186.232</v>
+      </c>
+      <c r="N10" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>33</v>
+      </c>
+      <c r="D11" t="n">
+        <v>29</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" t="n">
+        <v>20</v>
+      </c>
+      <c r="G11" t="n">
+        <v>32</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>37</v>
+      </c>
+      <c r="K11" t="n">
+        <v>63</v>
+      </c>
+      <c r="L11" t="n">
+        <v>97</v>
+      </c>
+      <c r="M11" t="n">
+        <v>126</v>
+      </c>
+      <c r="N11" t="n">
+        <v>146.77</v>
+      </c>
+      <c r="O11" t="n">
+        <v>190.77</v>
+      </c>
+      <c r="P11" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>31</v>
+      </c>
+      <c r="D12" t="n">
+        <v>30</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>35</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>50</v>
+      </c>
+      <c r="J12" t="n">
+        <v>72.042</v>
+      </c>
+      <c r="K12" t="n">
+        <v>116</v>
+      </c>
+      <c r="L12" t="n">
+        <v>147.541</v>
+      </c>
+      <c r="M12" t="n">
+        <v>198.578</v>
+      </c>
+      <c r="N12" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>42</v>
+      </c>
+      <c r="D13" t="n">
+        <v>16</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>31</v>
+      </c>
+      <c r="I13" t="n">
+        <v>75</v>
+      </c>
+      <c r="J13" t="n">
+        <v>103.028</v>
+      </c>
+      <c r="K13" t="n">
+        <v>124.208</v>
+      </c>
+      <c r="L13" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>18</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>87</v>
+      </c>
+      <c r="G14" t="n">
+        <v>112.811</v>
+      </c>
+      <c r="H14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Z4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1" t="n">
+        <v>245.982</v>
+      </c>
+      <c r="C1" t="n">
+        <v>14764.044</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24</v>
+      </c>
+      <c r="E2" t="n">
+        <v>25</v>
+      </c>
+      <c r="F2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2" t="n">
+        <v>11</v>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>10</v>
+      </c>
+      <c r="P2" t="n">
+        <v>105</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>197</v>
+      </c>
+      <c r="R2" t="n">
+        <v>357</v>
+      </c>
+      <c r="S2" t="n">
+        <v>450</v>
+      </c>
+      <c r="T2" t="n">
+        <v>543.162</v>
+      </c>
+      <c r="U2" t="n">
+        <v>635.398</v>
+      </c>
+      <c r="V2" t="n">
+        <v>727.634</v>
+      </c>
+      <c r="W2" t="n">
+        <v>825</v>
+      </c>
+      <c r="X2" t="n">
+        <v>917</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1025.682</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3" t="n">
+        <v>15</v>
+      </c>
+      <c r="H3" t="n">
+        <v>16</v>
+      </c>
+      <c r="I3" t="n">
+        <v>14</v>
+      </c>
+      <c r="J3" t="n">
+        <v>12</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>15.133</v>
+      </c>
+      <c r="N3" t="n">
+        <v>106.133</v>
+      </c>
+      <c r="O3" t="n">
+        <v>198.133</v>
+      </c>
+      <c r="P3" t="n">
+        <v>290.961</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>402.594</v>
+      </c>
+      <c r="R3" t="n">
+        <v>497.594</v>
+      </c>
+      <c r="S3" t="n">
+        <v>589.5940000000001</v>
+      </c>
+      <c r="T3" t="n">
+        <v>682.5940000000001</v>
+      </c>
+      <c r="U3" t="n">
+        <v>810.673</v>
+      </c>
+      <c r="V3" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>18</v>
+      </c>
+      <c r="F4" t="n">
+        <v>19</v>
+      </c>
+      <c r="G4" t="n">
+        <v>23</v>
+      </c>
+      <c r="H4" t="n">
+        <v>22</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>30.806</v>
+      </c>
+      <c r="M4" t="n">
+        <v>124.806</v>
+      </c>
+      <c r="N4" t="n">
+        <v>217.806</v>
+      </c>
+      <c r="O4" t="n">
+        <v>312.806</v>
+      </c>
+      <c r="P4" t="n">
+        <v>732</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>825</v>
+      </c>
+      <c r="R4" t="n">
+        <v>917</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1017.198</v>
+      </c>
+      <c r="T4" t="n">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AP4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1" t="n">
+        <v>957.337</v>
+      </c>
+      <c r="C1" t="n">
+        <v>52186.629</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>42</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>45</v>
+      </c>
+      <c r="G2" t="n">
+        <v>36</v>
+      </c>
+      <c r="H2" t="n">
+        <v>47</v>
+      </c>
+      <c r="I2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J2" t="n">
+        <v>40</v>
+      </c>
+      <c r="K2" t="n">
+        <v>41</v>
+      </c>
+      <c r="L2" t="n">
+        <v>22</v>
+      </c>
+      <c r="M2" t="n">
+        <v>9</v>
+      </c>
+      <c r="N2" t="n">
+        <v>50</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P2" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>35</v>
+      </c>
+      <c r="R2" t="n">
+        <v>24</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="n">
+        <v>25</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>25.495</v>
+      </c>
+      <c r="X2" t="n">
+        <v>44.715</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>74.715</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>96.75700000000001</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>129.118</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>146.329</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>331</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>373.016</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>401.127</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>415.37</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>476.36</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>547</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>565.246</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>589.388</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>686</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>726.067</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>754.095</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>817</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>860.5410000000001</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G3" t="n">
+        <v>31</v>
+      </c>
+      <c r="H3" t="n">
+        <v>30</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11</v>
+      </c>
+      <c r="J3" t="n">
+        <v>19</v>
+      </c>
+      <c r="K3" t="n">
+        <v>49</v>
+      </c>
+      <c r="L3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M3" t="n">
+        <v>20</v>
+      </c>
+      <c r="N3" t="n">
+        <v>32</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>17</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>104</v>
+      </c>
+      <c r="U3" t="n">
+        <v>135.633</v>
+      </c>
+      <c r="V3" t="n">
+        <v>190</v>
+      </c>
+      <c r="W3" t="n">
+        <v>228</v>
+      </c>
+      <c r="X3" t="n">
+        <v>263.495</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>285.537</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>316.153</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>333.224</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>501</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>577</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>602.811</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>660</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>707</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>773</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>806.409</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>846.823</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>17</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39</v>
+      </c>
+      <c r="E4" t="n">
+        <v>23</v>
+      </c>
+      <c r="F4" t="n">
+        <v>21</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>38</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44</v>
+      </c>
+      <c r="K4" t="n">
+        <v>16</v>
+      </c>
+      <c r="L4" t="n">
+        <v>18</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>46</v>
+      </c>
+      <c r="P4" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>43</v>
+      </c>
+      <c r="R4" t="n">
+        <v>37</v>
+      </c>
+      <c r="S4" t="n">
+        <v>13</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>114</v>
+      </c>
+      <c r="W4" t="n">
+        <v>155.401</v>
+      </c>
+      <c r="X4" t="n">
+        <v>206</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>234.028</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>254.468</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>277.468</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>312.468</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>333.285</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>349.368</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>381.729</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>415</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>444.849</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>515</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>588</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>632.828</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>660.091</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>690</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>711.1799999999999</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:X10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1" t="n">
+        <v>1020.199</v>
+      </c>
+      <c r="C1" t="n">
+        <v>63223.798</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>41</v>
+      </c>
+      <c r="D2" t="n">
+        <v>35</v>
+      </c>
+      <c r="E2" t="n">
+        <v>37</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>92</v>
+      </c>
+      <c r="I2" t="n">
+        <v>139</v>
+      </c>
+      <c r="J2" t="n">
+        <v>152.606</v>
+      </c>
+      <c r="K2" t="n">
+        <v>203.214</v>
+      </c>
+      <c r="L2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>47</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G3" t="n">
+        <v>16</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13</v>
+      </c>
+      <c r="K3" t="n">
+        <v>17</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>35.355</v>
+      </c>
+      <c r="O3" t="n">
+        <v>48.355</v>
+      </c>
+      <c r="P3" t="n">
+        <v>66.16500000000001</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>82.16500000000001</v>
+      </c>
+      <c r="R3" t="n">
+        <v>94.16500000000001</v>
+      </c>
+      <c r="S3" t="n">
+        <v>115.345</v>
+      </c>
+      <c r="T3" t="n">
+        <v>130.345</v>
+      </c>
+      <c r="U3" t="n">
+        <v>147.416</v>
+      </c>
+      <c r="V3" t="n">
+        <v>168.596</v>
+      </c>
+      <c r="W3" t="n">
+        <v>218.907</v>
+      </c>
+      <c r="X3" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>45</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>46</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>41</v>
+      </c>
+      <c r="N4" t="n">
+        <v>54</v>
+      </c>
+      <c r="O4" t="n">
+        <v>71.28</v>
+      </c>
+      <c r="P4" t="n">
+        <v>88.28</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>101.28</v>
+      </c>
+      <c r="R4" t="n">
+        <v>117.111</v>
+      </c>
+      <c r="S4" t="n">
+        <v>130.111</v>
+      </c>
+      <c r="T4" t="n">
+        <v>142.111</v>
+      </c>
+      <c r="U4" t="n">
+        <v>188.167</v>
+      </c>
+      <c r="V4" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29</v>
+      </c>
+      <c r="E5" t="n">
+        <v>27</v>
+      </c>
+      <c r="F5" t="n">
+        <v>26</v>
+      </c>
+      <c r="G5" t="n">
+        <v>32</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>61</v>
+      </c>
+      <c r="K5" t="n">
+        <v>73</v>
+      </c>
+      <c r="L5" t="n">
+        <v>88</v>
+      </c>
+      <c r="M5" t="n">
+        <v>115</v>
+      </c>
+      <c r="N5" t="n">
+        <v>133</v>
+      </c>
+      <c r="O5" t="n">
+        <v>194.078</v>
+      </c>
+      <c r="P5" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="n">
+        <v>28</v>
+      </c>
+      <c r="E6" t="n">
+        <v>30</v>
+      </c>
+      <c r="F6" t="n">
+        <v>34</v>
+      </c>
+      <c r="G6" t="n">
+        <v>50</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>51.478</v>
+      </c>
+      <c r="K6" t="n">
+        <v>70.08</v>
+      </c>
+      <c r="L6" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="M6" t="n">
+        <v>111</v>
+      </c>
+      <c r="N6" t="n">
+        <v>134</v>
+      </c>
+      <c r="O6" t="n">
+        <v>179.341</v>
+      </c>
+      <c r="P6" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>22</v>
+      </c>
+      <c r="E7" t="n">
+        <v>20</v>
+      </c>
+      <c r="F7" t="n">
+        <v>48</v>
+      </c>
+      <c r="G7" t="n">
+        <v>25</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>64</v>
+      </c>
+      <c r="K7" t="n">
+        <v>117.863</v>
+      </c>
+      <c r="L7" t="n">
+        <v>129.863</v>
+      </c>
+      <c r="M7" t="n">
+        <v>151</v>
+      </c>
+      <c r="N7" t="n">
+        <v>168</v>
+      </c>
+      <c r="O7" t="n">
+        <v>223.277</v>
+      </c>
+      <c r="P7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>23</v>
+      </c>
+      <c r="D8" t="n">
+        <v>21</v>
+      </c>
+      <c r="E8" t="n">
+        <v>19</v>
+      </c>
+      <c r="F8" t="n">
+        <v>18</v>
+      </c>
+      <c r="G8" t="n">
+        <v>49</v>
+      </c>
+      <c r="H8" t="n">
+        <v>24</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>65</v>
+      </c>
+      <c r="L8" t="n">
+        <v>77</v>
+      </c>
+      <c r="M8" t="n">
+        <v>92.38500000000001</v>
+      </c>
+      <c r="N8" t="n">
+        <v>107.77</v>
+      </c>
+      <c r="O8" t="n">
+        <v>125.05</v>
+      </c>
+      <c r="P8" t="n">
+        <v>148</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>193.057</v>
+      </c>
+      <c r="R8" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>39</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36</v>
+      </c>
+      <c r="E9" t="n">
+        <v>38</v>
+      </c>
+      <c r="F9" t="n">
+        <v>40</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>37</v>
+      </c>
+      <c r="L9" t="n">
+        <v>54.071</v>
+      </c>
+      <c r="M9" t="n">
+        <v>75</v>
+      </c>
+      <c r="N9" t="n">
+        <v>90.38500000000001</v>
+      </c>
+      <c r="O9" t="n">
+        <v>138.385</v>
+      </c>
+      <c r="P9" t="n">
+        <v>151.385</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>199.464</v>
+      </c>
+      <c r="R9" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>42</v>
+      </c>
+      <c r="D10" t="n">
+        <v>44</v>
+      </c>
+      <c r="E10" t="n">
+        <v>43</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>33.541</v>
+      </c>
+      <c r="I10" t="n">
+        <v>64</v>
+      </c>
+      <c r="J10" t="n">
+        <v>128</v>
+      </c>
+      <c r="K10" t="n">
+        <v>176.079</v>
+      </c>
+      <c r="L10" t="n">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AJ5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B1" t="n">
+        <v>904.914</v>
+      </c>
+      <c r="C1" t="n">
+        <v>38745.236</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>45</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>46</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>73</v>
+      </c>
+      <c r="P2" t="n">
+        <v>86</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>152</v>
+      </c>
+      <c r="R2" t="n">
+        <v>388</v>
+      </c>
+      <c r="S2" t="n">
+        <v>401</v>
+      </c>
+      <c r="T2" t="n">
+        <v>416</v>
+      </c>
+      <c r="U2" t="n">
+        <v>489</v>
+      </c>
+      <c r="V2" t="n">
+        <v>505.403</v>
+      </c>
+      <c r="W2" t="n">
+        <v>673</v>
+      </c>
+      <c r="X2" t="n">
+        <v>690.071</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>736.127</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>36</v>
+      </c>
+      <c r="D3" t="n">
+        <v>39</v>
+      </c>
+      <c r="E3" t="n">
+        <v>42</v>
+      </c>
+      <c r="F3" t="n">
+        <v>14</v>
+      </c>
+      <c r="G3" t="n">
+        <v>47</v>
+      </c>
+      <c r="H3" t="n">
+        <v>16</v>
+      </c>
+      <c r="I3" t="n">
+        <v>15</v>
+      </c>
+      <c r="J3" t="n">
+        <v>12</v>
+      </c>
+      <c r="K3" t="n">
+        <v>11</v>
+      </c>
+      <c r="L3" t="n">
+        <v>9</v>
+      </c>
+      <c r="M3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N3" t="n">
+        <v>43</v>
+      </c>
+      <c r="O3" t="n">
+        <v>35</v>
+      </c>
+      <c r="P3" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>43.012</v>
+      </c>
+      <c r="T3" t="n">
+        <v>64</v>
+      </c>
+      <c r="U3" t="n">
+        <v>79</v>
+      </c>
+      <c r="V3" t="n">
+        <v>150.033</v>
+      </c>
+      <c r="W3" t="n">
+        <v>163.033</v>
+      </c>
+      <c r="X3" t="n">
+        <v>255</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>267</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>284.81</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>299.81</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>371</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>519</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>592.64</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>657</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>670.606</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>721.2140000000001</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>15</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>28</v>
+      </c>
+      <c r="E4" t="n">
+        <v>27</v>
+      </c>
+      <c r="F4" t="n">
+        <v>29</v>
+      </c>
+      <c r="G4" t="n">
+        <v>30</v>
+      </c>
+      <c r="H4" t="n">
+        <v>31</v>
+      </c>
+      <c r="I4" t="n">
+        <v>44</v>
+      </c>
+      <c r="J4" t="n">
+        <v>40</v>
+      </c>
+      <c r="K4" t="n">
+        <v>38</v>
+      </c>
+      <c r="L4" t="n">
+        <v>41</v>
+      </c>
+      <c r="M4" t="n">
+        <v>17</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13</v>
+      </c>
+      <c r="O4" t="n">
+        <v>24</v>
+      </c>
+      <c r="P4" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>48</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>80</v>
+      </c>
+      <c r="U4" t="n">
+        <v>149</v>
+      </c>
+      <c r="V4" t="n">
+        <v>164.831</v>
+      </c>
+      <c r="W4" t="n">
+        <v>194</v>
+      </c>
+      <c r="X4" t="n">
+        <v>246</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>261</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>328.428</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>344.259</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>359.644</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>376.047</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>703</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>724.1799999999999</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>772.768</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>793.208</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>810.208</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>865.252</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>11</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21</v>
+      </c>
+      <c r="E5" t="n">
+        <v>18</v>
+      </c>
+      <c r="F5" t="n">
+        <v>19</v>
+      </c>
+      <c r="G5" t="n">
+        <v>49</v>
+      </c>
+      <c r="H5" t="n">
+        <v>22</v>
+      </c>
+      <c r="I5" t="n">
+        <v>20</v>
+      </c>
+      <c r="J5" t="n">
+        <v>50</v>
+      </c>
+      <c r="K5" t="n">
+        <v>34</v>
+      </c>
+      <c r="L5" t="n">
+        <v>26</v>
+      </c>
+      <c r="M5" t="n">
+        <v>32</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>201</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>215</v>
+      </c>
+      <c r="R5" t="n">
+        <v>335</v>
+      </c>
+      <c r="S5" t="n">
+        <v>350.385</v>
+      </c>
+      <c r="T5" t="n">
+        <v>440</v>
+      </c>
+      <c r="U5" t="n">
+        <v>453.606</v>
+      </c>
+      <c r="V5" t="n">
+        <v>537</v>
+      </c>
+      <c r="W5" t="n">
+        <v>583.056</v>
+      </c>
+      <c r="X5" t="n">
+        <v>606.056</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>627.236</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>645.236</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>706.314</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AD12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B1" t="n">
+        <v>910.349</v>
+      </c>
+      <c r="C1" t="n">
+        <v>485086.765</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>43</v>
+      </c>
+      <c r="D2" t="n">
+        <v>42</v>
+      </c>
+      <c r="E2" t="n">
+        <v>44</v>
+      </c>
+      <c r="F2" t="n">
+        <v>46</v>
+      </c>
+      <c r="G2" t="n">
+        <v>45</v>
+      </c>
+      <c r="H2" t="n">
+        <v>47</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>16.553</v>
+      </c>
+      <c r="L2" t="n">
+        <v>109.553</v>
+      </c>
+      <c r="M2" t="n">
+        <v>359</v>
+      </c>
+      <c r="N2" t="n">
+        <v>451.828</v>
+      </c>
+      <c r="O2" t="n">
+        <v>543.828</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1054</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1162.028</v>
+      </c>
+      <c r="R2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3" t="n">
+        <v>11</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>75</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>15.133</v>
+      </c>
+      <c r="R3" t="n">
+        <v>106.133</v>
+      </c>
+      <c r="S3" t="n">
+        <v>198.133</v>
+      </c>
+      <c r="T3" t="n">
+        <v>290.961</v>
+      </c>
+      <c r="U3" t="n">
+        <v>384.567</v>
+      </c>
+      <c r="V3" t="n">
+        <v>477.567</v>
+      </c>
+      <c r="W3" t="n">
+        <v>570.729</v>
+      </c>
+      <c r="X3" t="n">
+        <v>662.965</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>755.201</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>848.807</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>940.807</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1033.807</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1139.618</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>57</v>
+      </c>
+      <c r="D4" t="n">
+        <v>55</v>
+      </c>
+      <c r="E4" t="n">
+        <v>54</v>
+      </c>
+      <c r="F4" t="n">
+        <v>53</v>
+      </c>
+      <c r="G4" t="n">
+        <v>56</v>
+      </c>
+      <c r="H4" t="n">
+        <v>58</v>
+      </c>
+      <c r="I4" t="n">
+        <v>59</v>
+      </c>
+      <c r="J4" t="n">
+        <v>68</v>
+      </c>
+      <c r="K4" t="n">
+        <v>69</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>35</v>
+      </c>
+      <c r="O4" t="n">
+        <v>127</v>
+      </c>
+      <c r="P4" t="n">
+        <v>222</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>317.385</v>
+      </c>
+      <c r="R4" t="n">
+        <v>411.385</v>
+      </c>
+      <c r="S4" t="n">
+        <v>503.385</v>
+      </c>
+      <c r="T4" t="n">
+        <v>651</v>
+      </c>
+      <c r="U4" t="n">
+        <v>757.553</v>
+      </c>
+      <c r="V4" t="n">
+        <v>916</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1021.811</v>
+      </c>
+      <c r="X4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>41</v>
+      </c>
+      <c r="D5" t="n">
+        <v>40</v>
+      </c>
+      <c r="E5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F5" t="n">
+        <v>48</v>
+      </c>
+      <c r="G5" t="n">
+        <v>51</v>
+      </c>
+      <c r="H5" t="n">
+        <v>50</v>
+      </c>
+      <c r="I5" t="n">
+        <v>52</v>
+      </c>
+      <c r="J5" t="n">
+        <v>49</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>166</v>
+      </c>
+      <c r="N5" t="n">
+        <v>264</v>
+      </c>
+      <c r="O5" t="n">
+        <v>562</v>
+      </c>
+      <c r="P5" t="n">
+        <v>677.962</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>770.962</v>
+      </c>
+      <c r="R5" t="n">
+        <v>863.198</v>
+      </c>
+      <c r="S5" t="n">
+        <v>956.36</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1049.36</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1158.569</v>
+      </c>
+      <c r="V5" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>98</v>
+      </c>
+      <c r="D6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E6" t="n">
+        <v>95</v>
+      </c>
+      <c r="F6" t="n">
+        <v>94</v>
+      </c>
+      <c r="G6" t="n">
+        <v>92</v>
+      </c>
+      <c r="H6" t="n">
+        <v>93</v>
+      </c>
+      <c r="I6" t="n">
+        <v>97</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+      <c r="K6" t="n">
+        <v>99</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>30.806</v>
+      </c>
+      <c r="O6" t="n">
+        <v>126.191</v>
+      </c>
+      <c r="P6" t="n">
+        <v>218.191</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>311.797</v>
+      </c>
+      <c r="R6" t="n">
+        <v>405.403</v>
+      </c>
+      <c r="S6" t="n">
+        <v>497.403</v>
+      </c>
+      <c r="T6" t="n">
+        <v>592.403</v>
+      </c>
+      <c r="U6" t="n">
+        <v>687.403</v>
+      </c>
+      <c r="V6" t="n">
+        <v>782.403</v>
+      </c>
+      <c r="W6" t="n">
+        <v>905.944</v>
+      </c>
+      <c r="X6" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D7" t="n">
+        <v>17</v>
+      </c>
+      <c r="E7" t="n">
+        <v>18</v>
+      </c>
+      <c r="F7" t="n">
+        <v>19</v>
+      </c>
+      <c r="G7" t="n">
+        <v>15</v>
+      </c>
+      <c r="H7" t="n">
+        <v>16</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14</v>
+      </c>
+      <c r="J7" t="n">
+        <v>12</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>30.806</v>
+      </c>
+      <c r="N7" t="n">
+        <v>124.806</v>
+      </c>
+      <c r="O7" t="n">
+        <v>217.806</v>
+      </c>
+      <c r="P7" t="n">
+        <v>312.806</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>407.806</v>
+      </c>
+      <c r="R7" t="n">
+        <v>502.806</v>
+      </c>
+      <c r="S7" t="n">
+        <v>594.806</v>
+      </c>
+      <c r="T7" t="n">
+        <v>687.806</v>
+      </c>
+      <c r="U7" t="n">
+        <v>815.885</v>
+      </c>
+      <c r="V7" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>32</v>
+      </c>
+      <c r="D8" t="n">
+        <v>33</v>
+      </c>
+      <c r="E8" t="n">
+        <v>31</v>
+      </c>
+      <c r="F8" t="n">
+        <v>35</v>
+      </c>
+      <c r="G8" t="n">
+        <v>37</v>
+      </c>
+      <c r="H8" t="n">
+        <v>38</v>
+      </c>
+      <c r="I8" t="n">
+        <v>39</v>
+      </c>
+      <c r="J8" t="n">
+        <v>36</v>
+      </c>
+      <c r="K8" t="n">
+        <v>34</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>31.623</v>
+      </c>
+      <c r="O8" t="n">
+        <v>123.623</v>
+      </c>
+      <c r="P8" t="n">
+        <v>219.008</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>314.008</v>
+      </c>
+      <c r="R8" t="n">
+        <v>409.839</v>
+      </c>
+      <c r="S8" t="n">
+        <v>501.839</v>
+      </c>
+      <c r="T8" t="n">
+        <v>596.8390000000001</v>
+      </c>
+      <c r="U8" t="n">
+        <v>691.8390000000001</v>
+      </c>
+      <c r="V8" t="n">
+        <v>784.8390000000001</v>
+      </c>
+      <c r="W8" t="n">
+        <v>907.227</v>
+      </c>
+      <c r="X8" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>11</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D9" t="n">
+        <v>24</v>
+      </c>
+      <c r="E9" t="n">
+        <v>25</v>
+      </c>
+      <c r="F9" t="n">
+        <v>27</v>
+      </c>
+      <c r="G9" t="n">
+        <v>29</v>
+      </c>
+      <c r="H9" t="n">
+        <v>30</v>
+      </c>
+      <c r="I9" t="n">
+        <v>28</v>
+      </c>
+      <c r="J9" t="n">
+        <v>26</v>
+      </c>
+      <c r="K9" t="n">
+        <v>23</v>
+      </c>
+      <c r="L9" t="n">
+        <v>22</v>
+      </c>
+      <c r="M9" t="n">
+        <v>21</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>105</v>
+      </c>
+      <c r="R9" t="n">
+        <v>197</v>
+      </c>
+      <c r="S9" t="n">
+        <v>289</v>
+      </c>
+      <c r="T9" t="n">
+        <v>382.606</v>
+      </c>
+      <c r="U9" t="n">
+        <v>477.606</v>
+      </c>
+      <c r="V9" t="n">
+        <v>570.606</v>
+      </c>
+      <c r="W9" t="n">
+        <v>662.606</v>
+      </c>
+      <c r="X9" t="n">
+        <v>755.606</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>848.606</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>940.606</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1040.804</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>81</v>
+      </c>
+      <c r="D10" t="n">
+        <v>78</v>
+      </c>
+      <c r="E10" t="n">
+        <v>76</v>
+      </c>
+      <c r="F10" t="n">
+        <v>71</v>
+      </c>
+      <c r="G10" t="n">
+        <v>70</v>
+      </c>
+      <c r="H10" t="n">
+        <v>73</v>
+      </c>
+      <c r="I10" t="n">
+        <v>77</v>
+      </c>
+      <c r="J10" t="n">
+        <v>79</v>
+      </c>
+      <c r="K10" t="n">
+        <v>80</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>47.434</v>
+      </c>
+      <c r="O10" t="n">
+        <v>140.434</v>
+      </c>
+      <c r="P10" t="n">
+        <v>232.434</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>327.434</v>
+      </c>
+      <c r="R10" t="n">
+        <v>422.434</v>
+      </c>
+      <c r="S10" t="n">
+        <v>515.434</v>
+      </c>
+      <c r="T10" t="n">
+        <v>609.434</v>
+      </c>
+      <c r="U10" t="n">
+        <v>700.434</v>
+      </c>
+      <c r="V10" t="n">
+        <v>795.819</v>
+      </c>
+      <c r="W10" t="n">
+        <v>937.297</v>
+      </c>
+      <c r="X10" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>67</v>
+      </c>
+      <c r="D11" t="n">
+        <v>65</v>
+      </c>
+      <c r="E11" t="n">
+        <v>63</v>
+      </c>
+      <c r="F11" t="n">
+        <v>62</v>
+      </c>
+      <c r="G11" t="n">
+        <v>74</v>
+      </c>
+      <c r="H11" t="n">
+        <v>72</v>
+      </c>
+      <c r="I11" t="n">
+        <v>61</v>
+      </c>
+      <c r="J11" t="n">
+        <v>64</v>
+      </c>
+      <c r="K11" t="n">
+        <v>66</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>12.207</v>
+      </c>
+      <c r="O11" t="n">
+        <v>103.207</v>
+      </c>
+      <c r="P11" t="n">
+        <v>195.207</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>290.207</v>
+      </c>
+      <c r="R11" t="n">
+        <v>383.207</v>
+      </c>
+      <c r="S11" t="n">
+        <v>478.207</v>
+      </c>
+      <c r="T11" t="n">
+        <v>571.207</v>
+      </c>
+      <c r="U11" t="n">
+        <v>663.207</v>
+      </c>
+      <c r="V11" t="n">
+        <v>826</v>
+      </c>
+      <c r="W11" t="n">
+        <v>932.553</v>
+      </c>
+      <c r="X11" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>90</v>
+      </c>
+      <c r="D12" t="n">
+        <v>87</v>
+      </c>
+      <c r="E12" t="n">
+        <v>86</v>
+      </c>
+      <c r="F12" t="n">
+        <v>83</v>
+      </c>
+      <c r="G12" t="n">
+        <v>82</v>
+      </c>
+      <c r="H12" t="n">
+        <v>84</v>
+      </c>
+      <c r="I12" t="n">
+        <v>85</v>
+      </c>
+      <c r="J12" t="n">
+        <v>88</v>
+      </c>
+      <c r="K12" t="n">
+        <v>89</v>
+      </c>
+      <c r="L12" t="n">
+        <v>91</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>20.616</v>
+      </c>
+      <c r="P12" t="n">
+        <v>115.616</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>206.616</v>
+      </c>
+      <c r="R12" t="n">
+        <v>302.616</v>
+      </c>
+      <c r="S12" t="n">
+        <v>395.616</v>
+      </c>
+      <c r="T12" t="n">
+        <v>491.447</v>
+      </c>
+      <c r="U12" t="n">
+        <v>584.275</v>
+      </c>
+      <c r="V12" t="n">
+        <v>677.275</v>
+      </c>
+      <c r="W12" t="n">
+        <v>770.103</v>
+      </c>
+      <c r="X12" t="n">
+        <v>863.7089999999999</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>976.0700000000001</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BV5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B1" t="n">
+        <v>744.553</v>
+      </c>
+      <c r="C1" t="n">
+        <v>388728.016</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>67</v>
+      </c>
+      <c r="D2" t="n">
+        <v>66</v>
+      </c>
+      <c r="E2" t="n">
+        <v>69</v>
+      </c>
+      <c r="F2" t="n">
+        <v>68</v>
+      </c>
+      <c r="G2" t="n">
+        <v>65</v>
+      </c>
+      <c r="H2" t="n">
+        <v>49</v>
+      </c>
+      <c r="I2" t="n">
+        <v>55</v>
+      </c>
+      <c r="J2" t="n">
+        <v>54</v>
+      </c>
+      <c r="K2" t="n">
+        <v>53</v>
+      </c>
+      <c r="L2" t="n">
+        <v>56</v>
+      </c>
+      <c r="M2" t="n">
+        <v>58</v>
+      </c>
+      <c r="N2" t="n">
+        <v>60</v>
+      </c>
+      <c r="O2" t="n">
+        <v>59</v>
+      </c>
+      <c r="P2" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>40</v>
+      </c>
+      <c r="R2" t="n">
+        <v>44</v>
+      </c>
+      <c r="S2" t="n">
+        <v>46</v>
+      </c>
+      <c r="T2" t="n">
+        <v>45</v>
+      </c>
+      <c r="U2" t="n">
+        <v>51</v>
+      </c>
+      <c r="V2" t="n">
+        <v>50</v>
+      </c>
+      <c r="W2" t="n">
+        <v>52</v>
+      </c>
+      <c r="X2" t="n">
+        <v>47</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>43</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>48</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>12.207</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>588</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>680</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>776</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>871.385</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>967.788</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1065.598</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1160.598</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1256</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1350</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1442</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1535</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>1630.831</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>1725.831</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1819.437</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1913.909</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>2009.294</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>2105.697</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>2200.697</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>2292.933</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>2386.095</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>2481.095</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>2574.095</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>2667.095</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>2759.095</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>2857.157</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>2957.927</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>34</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>63</v>
+      </c>
+      <c r="D3" t="n">
+        <v>62</v>
+      </c>
+      <c r="E3" t="n">
+        <v>74</v>
+      </c>
+      <c r="F3" t="n">
+        <v>72</v>
+      </c>
+      <c r="G3" t="n">
+        <v>61</v>
+      </c>
+      <c r="H3" t="n">
+        <v>64</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6</v>
+      </c>
+      <c r="J3" t="n">
+        <v>32</v>
+      </c>
+      <c r="K3" t="n">
+        <v>33</v>
+      </c>
+      <c r="L3" t="n">
+        <v>31</v>
+      </c>
+      <c r="M3" t="n">
+        <v>35</v>
+      </c>
+      <c r="N3" t="n">
+        <v>37</v>
+      </c>
+      <c r="O3" t="n">
+        <v>38</v>
+      </c>
+      <c r="P3" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>36</v>
+      </c>
+      <c r="R3" t="n">
+        <v>34</v>
+      </c>
+      <c r="S3" t="n">
+        <v>88</v>
+      </c>
+      <c r="T3" t="n">
+        <v>84</v>
+      </c>
+      <c r="U3" t="n">
+        <v>86</v>
+      </c>
+      <c r="V3" t="n">
+        <v>83</v>
+      </c>
+      <c r="W3" t="n">
+        <v>82</v>
+      </c>
+      <c r="X3" t="n">
+        <v>85</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>76</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>71</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>73</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>79</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>78</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>77</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>96</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>87</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>120</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>213</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>308</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>401</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>493</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>617.176</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>713.501</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>805.501</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>900.886</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>995.886</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>1091.717</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>1183.717</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>1278.717</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>1373.717</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>1466.717</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>1615.658</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>1711.043</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>1806.043</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>1902.043</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>1995.043</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>2099.256</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>2200.961</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>2295.961</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>2390.961</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>2483.961</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>2582.563</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>2677.948</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>2773.333</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>2871.935</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>2969.745</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>3070.925</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>3167.25</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>3267.099</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>3377.715</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>29</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>93</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>75</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>99</v>
+      </c>
+      <c r="I4" t="n">
+        <v>100</v>
+      </c>
+      <c r="J4" t="n">
+        <v>97</v>
+      </c>
+      <c r="K4" t="n">
+        <v>92</v>
+      </c>
+      <c r="L4" t="n">
+        <v>94</v>
+      </c>
+      <c r="M4" t="n">
+        <v>95</v>
+      </c>
+      <c r="N4" t="n">
+        <v>98</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>89</v>
+      </c>
+      <c r="S4" t="n">
+        <v>91</v>
+      </c>
+      <c r="T4" t="n">
+        <v>18</v>
+      </c>
+      <c r="U4" t="n">
+        <v>19</v>
+      </c>
+      <c r="V4" t="n">
+        <v>16</v>
+      </c>
+      <c r="W4" t="n">
+        <v>14</v>
+      </c>
+      <c r="X4" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>8.246</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>105.246</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>198.246</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>293.246</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>391.848</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>487.679</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>582.679</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>677.679</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>774.679</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>868.285</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>961.891</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>1058.294</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1153.294</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>1247.417</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>1341.023</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>1435.495</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>1531.152</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>1742</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>1837</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>1934.071</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>2026.071</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>2119.071</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>2216.142</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>2311.527</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>2405.527</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>2601</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>2698.071</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>2791.071</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>2887.154</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>2988.816</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>11</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22</v>
+      </c>
+      <c r="E5" t="n">
+        <v>24</v>
+      </c>
+      <c r="F5" t="n">
+        <v>27</v>
+      </c>
+      <c r="G5" t="n">
+        <v>30</v>
+      </c>
+      <c r="H5" t="n">
+        <v>29</v>
+      </c>
+      <c r="I5" t="n">
+        <v>28</v>
+      </c>
+      <c r="J5" t="n">
+        <v>26</v>
+      </c>
+      <c r="K5" t="n">
+        <v>23</v>
+      </c>
+      <c r="L5" t="n">
+        <v>25</v>
+      </c>
+      <c r="M5" t="n">
+        <v>21</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>102.828</v>
+      </c>
+      <c r="R5" t="n">
+        <v>196.434</v>
+      </c>
+      <c r="S5" t="n">
+        <v>289.262</v>
+      </c>
+      <c r="T5" t="n">
+        <v>383.505</v>
+      </c>
+      <c r="U5" t="n">
+        <v>478.505</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1447</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1545.062</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1643</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2504</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>2983</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>3084.662</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B1" t="n">
+        <v>1780.45</v>
+      </c>
+      <c r="C1" t="n">
+        <v>373552.634</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>98</v>
+      </c>
+      <c r="E2" t="n">
+        <v>61</v>
+      </c>
+      <c r="F2" t="n">
+        <v>85</v>
+      </c>
+      <c r="G2" t="n">
+        <v>37</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>32.016</v>
+      </c>
+      <c r="L2" t="n">
+        <v>58</v>
+      </c>
+      <c r="M2" t="n">
+        <v>76</v>
+      </c>
+      <c r="N2" t="n">
+        <v>91</v>
+      </c>
+      <c r="O2" t="n">
+        <v>134</v>
+      </c>
+      <c r="P2" t="n">
+        <v>185</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>219.042</v>
+      </c>
+      <c r="R2" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>95</v>
+      </c>
+      <c r="D3" t="n">
+        <v>44</v>
+      </c>
+      <c r="E3" t="n">
+        <v>38</v>
+      </c>
+      <c r="F3" t="n">
+        <v>43</v>
+      </c>
+      <c r="G3" t="n">
+        <v>13</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>39</v>
+      </c>
+      <c r="K3" t="n">
+        <v>69</v>
+      </c>
+      <c r="L3" t="n">
+        <v>89.81699999999999</v>
+      </c>
+      <c r="M3" t="n">
+        <v>132</v>
+      </c>
+      <c r="N3" t="n">
+        <v>165.087</v>
+      </c>
+      <c r="O3" t="n">
+        <v>186.267</v>
+      </c>
+      <c r="P3" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>45</v>
+      </c>
+      <c r="D4" t="n">
+        <v>83</v>
+      </c>
+      <c r="E4" t="n">
+        <v>88</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>32</v>
+      </c>
+      <c r="I4" t="n">
+        <v>50.062</v>
+      </c>
+      <c r="J4" t="n">
+        <v>79.271</v>
+      </c>
+      <c r="K4" t="n">
+        <v>108.506</v>
+      </c>
+      <c r="L4" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>62</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>58</v>
+      </c>
+      <c r="I5" t="n">
+        <v>76.062</v>
+      </c>
+      <c r="J5" t="n">
+        <v>124</v>
+      </c>
+      <c r="K5" t="n">
+        <v>159.495</v>
+      </c>
+      <c r="L5" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>40</v>
+      </c>
+      <c r="D6" t="n">
+        <v>56</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>85</v>
+      </c>
+      <c r="I6" t="n">
+        <v>130</v>
+      </c>
+      <c r="J6" t="n">
+        <v>149</v>
+      </c>
+      <c r="K6" t="n">
+        <v>184</v>
+      </c>
+      <c r="L6" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>52</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>46</v>
+      </c>
+      <c r="G7" t="n">
+        <v>17</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>52</v>
+      </c>
+      <c r="K7" t="n">
+        <v>81</v>
+      </c>
+      <c r="L7" t="n">
+        <v>103.207</v>
+      </c>
+      <c r="M7" t="n">
+        <v>122.641</v>
+      </c>
+      <c r="N7" t="n">
+        <v>157</v>
+      </c>
+      <c r="O7" t="n">
+        <v>197.414</v>
+      </c>
+      <c r="P7" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>28</v>
+      </c>
+      <c r="D8" t="n">
+        <v>12</v>
+      </c>
+      <c r="E8" t="n">
+        <v>76</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>54</v>
+      </c>
+      <c r="H8" t="n">
+        <v>24</v>
+      </c>
+      <c r="I8" t="n">
+        <v>80</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>39</v>
+      </c>
+      <c r="M8" t="n">
+        <v>63</v>
+      </c>
+      <c r="N8" t="n">
+        <v>80.071</v>
+      </c>
+      <c r="O8" t="n">
+        <v>116</v>
+      </c>
+      <c r="P8" t="n">
+        <v>142.125</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>162.125</v>
+      </c>
+      <c r="R8" t="n">
+        <v>182</v>
+      </c>
+      <c r="S8" t="n">
+        <v>213.095</v>
+      </c>
+      <c r="T8" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>82</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18</v>
+      </c>
+      <c r="E9" t="n">
+        <v>84</v>
+      </c>
+      <c r="F9" t="n">
+        <v>60</v>
+      </c>
+      <c r="G9" t="n">
+        <v>89</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>55</v>
+      </c>
+      <c r="K9" t="n">
+        <v>87</v>
+      </c>
+      <c r="L9" t="n">
+        <v>109.728</v>
+      </c>
+      <c r="M9" t="n">
+        <v>162</v>
+      </c>
+      <c r="N9" t="n">
+        <v>181.055</v>
+      </c>
+      <c r="O9" t="n">
+        <v>200.055</v>
+      </c>
+      <c r="P9" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>53</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>95</v>
+      </c>
+      <c r="G10" t="n">
+        <v>109.472</v>
+      </c>
+      <c r="H10" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>36</v>
+      </c>
+      <c r="D11" t="n">
+        <v>47</v>
+      </c>
+      <c r="E11" t="n">
+        <v>19</v>
+      </c>
+      <c r="F11" t="n">
+        <v>90</v>
+      </c>
+      <c r="G11" t="n">
+        <v>32</v>
+      </c>
+      <c r="H11" t="n">
+        <v>70</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="L11" t="n">
+        <v>58.611</v>
+      </c>
+      <c r="M11" t="n">
+        <v>76.673</v>
+      </c>
+      <c r="N11" t="n">
+        <v>104.137</v>
+      </c>
+      <c r="O11" t="n">
+        <v>141</v>
+      </c>
+      <c r="P11" t="n">
+        <v>182</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>213.095</v>
+      </c>
+      <c r="R11" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>39</v>
+      </c>
+      <c r="D12" t="n">
+        <v>23</v>
+      </c>
+      <c r="E12" t="n">
+        <v>67</v>
+      </c>
+      <c r="F12" t="n">
+        <v>55</v>
+      </c>
+      <c r="G12" t="n">
+        <v>25</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>44</v>
+      </c>
+      <c r="K12" t="n">
+        <v>68</v>
+      </c>
+      <c r="L12" t="n">
+        <v>90</v>
+      </c>
+      <c r="M12" t="n">
+        <v>136</v>
+      </c>
+      <c r="N12" t="n">
+        <v>172</v>
+      </c>
+      <c r="O12" t="n">
+        <v>215.541</v>
+      </c>
+      <c r="P12" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>6</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>65</v>
+      </c>
+      <c r="D13" t="n">
+        <v>71</v>
+      </c>
+      <c r="E13" t="n">
+        <v>81</v>
+      </c>
+      <c r="F13" t="n">
+        <v>34</v>
+      </c>
+      <c r="G13" t="n">
+        <v>35</v>
+      </c>
+      <c r="H13" t="n">
+        <v>77</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>51</v>
+      </c>
+      <c r="L13" t="n">
+        <v>77</v>
+      </c>
+      <c r="M13" t="n">
+        <v>101.142</v>
+      </c>
+      <c r="N13" t="n">
+        <v>121.192</v>
+      </c>
+      <c r="O13" t="n">
+        <v>143</v>
+      </c>
+      <c r="P13" t="n">
+        <v>179</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>208.698</v>
+      </c>
+      <c r="R13" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>99</v>
+      </c>
+      <c r="G14" t="n">
+        <v>120.18</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>16</v>
+      </c>
+      <c r="E15" t="n">
+        <v>86</v>
+      </c>
+      <c r="F15" t="n">
+        <v>91</v>
+      </c>
+      <c r="G15" t="n">
+        <v>93</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>34</v>
+      </c>
+      <c r="K15" t="n">
+        <v>75</v>
+      </c>
+      <c r="L15" t="n">
+        <v>94</v>
+      </c>
+      <c r="M15" t="n">
+        <v>160</v>
+      </c>
+      <c r="N15" t="n">
+        <v>188</v>
+      </c>
+      <c r="O15" t="n">
+        <v>218.248</v>
+      </c>
+      <c r="P15" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>33</v>
+      </c>
+      <c r="D16" t="n">
+        <v>29</v>
+      </c>
+      <c r="E16" t="n">
+        <v>79</v>
+      </c>
+      <c r="F16" t="n">
+        <v>66</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>37</v>
+      </c>
+      <c r="K16" t="n">
+        <v>63</v>
+      </c>
+      <c r="L16" t="n">
+        <v>92</v>
+      </c>
+      <c r="M16" t="n">
+        <v>128.249</v>
+      </c>
+      <c r="N16" t="n">
+        <v>163.547</v>
+      </c>
+      <c r="O16" t="n">
+        <v>188.779</v>
+      </c>
+      <c r="P16" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>75</v>
+      </c>
+      <c r="E17" t="n">
+        <v>22</v>
+      </c>
+      <c r="F17" t="n">
+        <v>26</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>50</v>
+      </c>
+      <c r="J17" t="n">
+        <v>75.232</v>
+      </c>
+      <c r="K17" t="n">
+        <v>97</v>
+      </c>
+      <c r="L17" t="n">
+        <v>132</v>
+      </c>
+      <c r="M17" t="n">
+        <v>153.18</v>
+      </c>
+      <c r="N17" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>31</v>
+      </c>
+      <c r="D18" t="n">
+        <v>30</v>
+      </c>
+      <c r="E18" t="n">
+        <v>78</v>
+      </c>
+      <c r="F18" t="n">
+        <v>50</v>
+      </c>
+      <c r="G18" t="n">
+        <v>68</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>50</v>
+      </c>
+      <c r="K18" t="n">
+        <v>72.042</v>
+      </c>
+      <c r="L18" t="n">
+        <v>104.514</v>
+      </c>
+      <c r="M18" t="n">
+        <v>129.38</v>
+      </c>
+      <c r="N18" t="n">
+        <v>151.422</v>
+      </c>
+      <c r="O18" t="n">
+        <v>182.8</v>
+      </c>
+      <c r="P18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>63</v>
+      </c>
+      <c r="D19" t="n">
+        <v>64</v>
+      </c>
+      <c r="E19" t="n">
+        <v>49</v>
+      </c>
+      <c r="F19" t="n">
+        <v>48</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>34.928</v>
+      </c>
+      <c r="J19" t="n">
+        <v>73</v>
+      </c>
+      <c r="K19" t="n">
+        <v>108</v>
+      </c>
+      <c r="L19" t="n">
+        <v>165</v>
+      </c>
+      <c r="M19" t="n">
+        <v>202.803</v>
+      </c>
+      <c r="N19" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>59</v>
+      </c>
+      <c r="D20" t="n">
+        <v>99</v>
+      </c>
+      <c r="E20" t="n">
+        <v>94</v>
+      </c>
+      <c r="F20" t="n">
+        <v>96</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>18</v>
+      </c>
+      <c r="J20" t="n">
+        <v>83</v>
+      </c>
+      <c r="K20" t="n">
+        <v>100</v>
+      </c>
+      <c r="L20" t="n">
+        <v>135</v>
+      </c>
+      <c r="M20" t="n">
+        <v>160.264</v>
+      </c>
+      <c r="N20" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>27</v>
+      </c>
+      <c r="D21" t="n">
+        <v>69</v>
+      </c>
+      <c r="E21" t="n">
+        <v>51</v>
+      </c>
+      <c r="F21" t="n">
+        <v>9</v>
+      </c>
+      <c r="G21" t="n">
+        <v>20</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>37</v>
+      </c>
+      <c r="K21" t="n">
+        <v>54.28</v>
+      </c>
+      <c r="L21" t="n">
+        <v>88</v>
+      </c>
+      <c r="M21" t="n">
+        <v>104.325</v>
+      </c>
+      <c r="N21" t="n">
+        <v>126</v>
+      </c>
+      <c r="O21" t="n">
+        <v>167.623</v>
+      </c>
+      <c r="P21" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>6</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>72</v>
+      </c>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="n">
+        <v>73</v>
+      </c>
+      <c r="F22" t="n">
+        <v>41</v>
+      </c>
+      <c r="G22" t="n">
+        <v>74</v>
+      </c>
+      <c r="H22" t="n">
+        <v>58</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>35</v>
+      </c>
+      <c r="L22" t="n">
+        <v>62</v>
+      </c>
+      <c r="M22" t="n">
+        <v>78</v>
+      </c>
+      <c r="N22" t="n">
+        <v>98.19799999999999</v>
+      </c>
+      <c r="O22" t="n">
+        <v>149</v>
+      </c>
+      <c r="P22" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>219.055</v>
+      </c>
+      <c r="R22" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>6</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>92</v>
+      </c>
+      <c r="D23" t="n">
+        <v>42</v>
+      </c>
+      <c r="E23" t="n">
+        <v>15</v>
+      </c>
+      <c r="F23" t="n">
+        <v>87</v>
+      </c>
+      <c r="G23" t="n">
+        <v>57</v>
+      </c>
+      <c r="H23" t="n">
+        <v>97</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>18.385</v>
+      </c>
+      <c r="L23" t="n">
+        <v>38.583</v>
+      </c>
+      <c r="M23" t="n">
+        <v>61</v>
+      </c>
+      <c r="N23" t="n">
+        <v>93</v>
+      </c>
+      <c r="O23" t="n">
+        <v>110.211</v>
+      </c>
+      <c r="P23" t="n">
+        <v>133</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>160.205</v>
+      </c>
+      <c r="R23" t="n">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AX8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B1" t="n">
+        <v>1385.629</v>
+      </c>
+      <c r="C1" t="n">
+        <v>311120</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>62</v>
+      </c>
+      <c r="D2" t="n">
+        <v>63</v>
+      </c>
+      <c r="E2" t="n">
+        <v>90</v>
+      </c>
+      <c r="F2" t="n">
+        <v>66</v>
+      </c>
+      <c r="G2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>163</v>
+      </c>
+      <c r="L2" t="n">
+        <v>184.402</v>
+      </c>
+      <c r="M2" t="n">
+        <v>392</v>
+      </c>
+      <c r="N2" t="n">
+        <v>592</v>
+      </c>
+      <c r="O2" t="n">
+        <v>610.944</v>
+      </c>
+      <c r="P2" t="n">
+        <v>639.0549999999999</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>666.026</v>
+      </c>
+      <c r="R2" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>52</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" t="n">
+        <v>88</v>
+      </c>
+      <c r="F3" t="n">
+        <v>51</v>
+      </c>
+      <c r="G3" t="n">
+        <v>81</v>
+      </c>
+      <c r="H3" t="n">
+        <v>78</v>
+      </c>
+      <c r="I3" t="n">
+        <v>34</v>
+      </c>
+      <c r="J3" t="n">
+        <v>35</v>
+      </c>
+      <c r="K3" t="n">
+        <v>32</v>
+      </c>
+      <c r="L3" t="n">
+        <v>48</v>
+      </c>
+      <c r="M3" t="n">
+        <v>60</v>
+      </c>
+      <c r="N3" t="n">
+        <v>17</v>
+      </c>
+      <c r="O3" t="n">
+        <v>91</v>
+      </c>
+      <c r="P3" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>93</v>
+      </c>
+      <c r="R3" t="n">
+        <v>89</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>174</v>
+      </c>
+      <c r="V3" t="n">
+        <v>331</v>
+      </c>
+      <c r="W3" t="n">
+        <v>347.325</v>
+      </c>
+      <c r="X3" t="n">
+        <v>381.095</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>411</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>427.325</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>529</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>686</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>724.284</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>773</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>801.439</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>824.088</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>848.954</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>862.116</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>878.116</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>901.717</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>920.717</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>16</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>33</v>
+      </c>
+      <c r="E4" t="n">
+        <v>65</v>
+      </c>
+      <c r="F4" t="n">
+        <v>29</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21</v>
+      </c>
+      <c r="H4" t="n">
+        <v>73</v>
+      </c>
+      <c r="I4" t="n">
+        <v>40</v>
+      </c>
+      <c r="J4" t="n">
+        <v>53</v>
+      </c>
+      <c r="K4" t="n">
+        <v>94</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6</v>
+      </c>
+      <c r="M4" t="n">
+        <v>96</v>
+      </c>
+      <c r="N4" t="n">
+        <v>97</v>
+      </c>
+      <c r="O4" t="n">
+        <v>37</v>
+      </c>
+      <c r="P4" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>74</v>
+      </c>
+      <c r="R4" t="n">
+        <v>58</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>114</v>
+      </c>
+      <c r="V4" t="n">
+        <v>143.209</v>
+      </c>
+      <c r="W4" t="n">
+        <v>179.78</v>
+      </c>
+      <c r="X4" t="n">
+        <v>224.837</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>263.906</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>308</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>360</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>414</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>436</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>449.162</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>607</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>623.708</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>638.807</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>666.0700000000001</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>701.15</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>849</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>868.0549999999999</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>17</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>72</v>
+      </c>
+      <c r="D5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E5" t="n">
+        <v>14</v>
+      </c>
+      <c r="F5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G5" t="n">
+        <v>39</v>
+      </c>
+      <c r="H5" t="n">
+        <v>23</v>
+      </c>
+      <c r="I5" t="n">
+        <v>75</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>99</v>
+      </c>
+      <c r="L5" t="n">
+        <v>18</v>
+      </c>
+      <c r="M5" t="n">
+        <v>84</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>49</v>
+      </c>
+      <c r="P5" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>10</v>
+      </c>
+      <c r="R5" t="n">
+        <v>70</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>31</v>
+      </c>
+      <c r="W5" t="n">
+        <v>64.345</v>
+      </c>
+      <c r="X5" t="n">
+        <v>83.565</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>175</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>215.806</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>234.408</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>252.893</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>278.125</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>333</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>377</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>436</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>458.042</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>501</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>531.396</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>577</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>788</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>806.062</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>831.294</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>22</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>83</v>
+      </c>
+      <c r="E6" t="n">
+        <v>45</v>
+      </c>
+      <c r="F6" t="n">
+        <v>82</v>
+      </c>
+      <c r="G6" t="n">
+        <v>47</v>
+      </c>
+      <c r="H6" t="n">
+        <v>36</v>
+      </c>
+      <c r="I6" t="n">
+        <v>64</v>
+      </c>
+      <c r="J6" t="n">
+        <v>11</v>
+      </c>
+      <c r="K6" t="n">
+        <v>19</v>
+      </c>
+      <c r="L6" t="n">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>12</v>
+      </c>
+      <c r="N6" t="n">
+        <v>67</v>
+      </c>
+      <c r="O6" t="n">
+        <v>41</v>
+      </c>
+      <c r="P6" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>56</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>54</v>
+      </c>
+      <c r="T6" t="n">
+        <v>55</v>
+      </c>
+      <c r="U6" t="n">
+        <v>25</v>
+      </c>
+      <c r="V6" t="n">
+        <v>24</v>
+      </c>
+      <c r="W6" t="n">
+        <v>80</v>
+      </c>
+      <c r="X6" t="n">
+        <v>77</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>96</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>114.062</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>162</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>183.402</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>200.613</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>232.014</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>255.014</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>272.085</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>320.556</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>337.627</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>382.109</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>417.189</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>431.432</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>585</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>678</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>697.22</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>715.705</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>817</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>842</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>861.22</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>877.928</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>907.626</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>27</v>
+      </c>
+      <c r="D7" t="n">
+        <v>69</v>
+      </c>
+      <c r="E7" t="n">
+        <v>31</v>
+      </c>
+      <c r="F7" t="n">
+        <v>30</v>
+      </c>
+      <c r="G7" t="n">
+        <v>71</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+      <c r="I7" t="n">
+        <v>79</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>68</v>
+      </c>
+      <c r="L7" t="n">
+        <v>26</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>104</v>
+      </c>
+      <c r="P7" t="n">
+        <v>162</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>179.81</v>
+      </c>
+      <c r="R7" t="n">
+        <v>259</v>
+      </c>
+      <c r="S7" t="n">
+        <v>287.788</v>
+      </c>
+      <c r="T7" t="n">
+        <v>400</v>
+      </c>
+      <c r="U7" t="n">
+        <v>422.166</v>
+      </c>
+      <c r="V7" t="n">
+        <v>527</v>
+      </c>
+      <c r="W7" t="n">
+        <v>637</v>
+      </c>
+      <c r="X7" t="n">
+        <v>661.213</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>682.393</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>13</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>95</v>
+      </c>
+      <c r="D8" t="n">
+        <v>59</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92</v>
+      </c>
+      <c r="F8" t="n">
+        <v>98</v>
+      </c>
+      <c r="G8" t="n">
+        <v>61</v>
+      </c>
+      <c r="H8" t="n">
+        <v>16</v>
+      </c>
+      <c r="I8" t="n">
+        <v>44</v>
+      </c>
+      <c r="J8" t="n">
+        <v>38</v>
+      </c>
+      <c r="K8" t="n">
+        <v>86</v>
+      </c>
+      <c r="L8" t="n">
+        <v>85</v>
+      </c>
+      <c r="M8" t="n">
+        <v>87</v>
+      </c>
+      <c r="N8" t="n">
+        <v>57</v>
+      </c>
+      <c r="O8" t="n">
+        <v>13</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>92</v>
+      </c>
+      <c r="S8" t="n">
+        <v>106</v>
+      </c>
+      <c r="T8" t="n">
+        <v>118.236</v>
+      </c>
+      <c r="U8" t="n">
+        <v>183</v>
+      </c>
+      <c r="V8" t="n">
+        <v>290</v>
+      </c>
+      <c r="W8" t="n">
+        <v>304.472</v>
+      </c>
+      <c r="X8" t="n">
+        <v>320.555</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>341.372</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>388</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>410.649</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>433.298</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>450.509</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>690</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>711.1799999999999</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
